--- a/卒業制作 (3).xlsx
+++ b/卒業制作 (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE3A13\卒業制作\Labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF9ABE6-75D4-48FA-8DA1-3428B7AA6FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4879A48-88C0-4C8D-ADBA-698EE12D8AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7512" xr2:uid="{243CCB41-0353-4C68-8296-4CB6A554B702}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="224">
   <si>
     <t>警察24時</t>
     <rPh sb="0" eb="2">
@@ -993,50 +993,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ上に１分～1分半いたらマップ外に向かってデスポーンする処理</t>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>プン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>プンハン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1人デスポーンしたら1人スポーンする処理(50人程度)</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>犯罪者共通</t>
     <rPh sb="0" eb="3">
       <t>ハンザイシャ</t>
@@ -1514,34 +1470,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>町全体をの信号を赤にする処理</t>
-    <rPh sb="0" eb="3">
-      <t>マチゼンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラマー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企画</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デザイナー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1604,19 +1533,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AIが歩ける場所を指定する</t>
-    <rPh sb="3" eb="4">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーが星を回収する処理</t>
     <rPh sb="6" eb="7">
       <t>ホシ</t>
@@ -1670,22 +1586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面の画像の差し替え</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銃のエフェクトの設定</t>
     <rPh sb="0" eb="1">
       <t>ジュウ</t>
@@ -1814,6 +1714,159 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の差し替え</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの配置と差し替え</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイム関係の処理</t>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人共通</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトキョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音とエフェクトの設定</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使えるアイテムを設定する処理</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車と人の統合</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIが歩ける場所を指定する処理</t>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町全体を赤にする処理</t>
+    <rPh sb="0" eb="3">
+      <t>マチゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリケード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２個しか置けない処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行く手を塞ぐ処理</t>
+    <rPh sb="0" eb="1">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犯罪者サーチ</t>
+    <rPh sb="0" eb="3">
+      <t>ハンザイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犯罪者をマップへ表示</t>
+    <rPh sb="0" eb="3">
+      <t>ハンザイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2262,9 +2315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2343,37 +2393,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,85 +2486,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2484,13 +2516,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2500,96 +2643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2907,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E4AAE-54DD-4F16-91FF-456D394778FB}">
-  <dimension ref="A1:R217"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2930,19 +2983,19 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="44"/>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="65"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="48"/>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2956,16 +3009,16 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="105" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="114" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2975,7 +3028,7 @@
       <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2985,34 +3038,34 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="74"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="20"/>
-      <c r="F6" s="74"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1"/>
       <c r="N6" s="1">
         <f>SUM(O25:$O$28)</f>
-        <v>462</v>
-      </c>
-      <c r="O6" s="34"/>
+        <v>498</v>
+      </c>
+      <c r="O6" s="33"/>
       <c r="P6">
-        <f>SUMIF($K$17:$K$215,$D$5,$L$17:$L$215)</f>
+        <f>SUMIF($K$17:$K$224,$D$5,$L$17:$L$224)</f>
         <v>204</v>
       </c>
       <c r="Q6">
-        <f>SUMIF($K$17:$K$215,$D$8,$L$17:$L$215)+SUMIF($K$17:$K$215,$D$9,$L$17:$L$215)+SUMIF($K$17:$K$215,$D$10,$L$17:$L$215)+SUMIF($K$17:$K$215,$D$11,$L$17:$L$215)</f>
+        <f>SUMIF($K$17:$K$224,$D$8,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$9,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$10,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$11,$L$17:$L$224)</f>
         <v>234</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="74"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="75"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3021,11 +3074,11 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="74"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1"/>
@@ -3033,9 +3086,9 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="74"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1"/>
@@ -3046,9 +3099,9 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="74"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="1"/>
@@ -3059,9 +3112,9 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="74"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="1"/>
@@ -3069,8 +3122,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="74"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="111" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -3081,9 +3134,9 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="1"/>
@@ -3091,8 +3144,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="75"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
@@ -3114,84 +3167,84 @@
       <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="76" t="s">
+    <row r="17" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L17" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="59" t="s">
+    <row r="18" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L18" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="17"/>
+    <row r="19" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="80" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="118"/>
+      <c r="D20" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -3199,882 +3252,872 @@
       </c>
       <c r="N20">
         <f>(500/3)-(O28/3)</f>
-        <v>126.33333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="82" t="s">
+        <v>124.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="5">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <f>SUM(L22:L43)+L148+L150+SUM(L48:L57)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="45" t="s">
+    <row r="24" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="5">
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O25">
-        <f>SUMIF($K$22:$K$224,$D$12,$L$22:$L$224)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="46" t="s">
+        <f>SUMIF($K$22:$K$233,$D$12,$L$22:$L$233)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="5">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O26">
         <f>SUMIF($K$22:$K$224,$D$13,$L$22:$L$224)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="5">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27">
+        <f>SUMIF($K$22:$K$233,$D$14,$L$22:$L$233)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="30">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28">
+        <f>SUMIF($K$22:$K$220,"プログラマー全員",$L$22:$L$220)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="17">
         <v>7</v>
       </c>
-      <c r="N27" t="s">
-        <v>191</v>
-      </c>
-      <c r="O27">
-        <f>SUMIF($K$22:$K$224,$D$14,$L$22:$L$224)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="31">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>192</v>
-      </c>
-      <c r="O28">
-        <f>SUMIF($K$22:$K$211,"プログラマー全員",$L$22:$L$211)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="41" t="s">
+    </row>
+    <row r="30" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="46" t="s">
+      <c r="E31" s="44"/>
+      <c r="F31" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="46" t="s">
+    <row r="32" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="45" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="29">
-        <v>6</v>
+      <c r="L34" s="28">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="45" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="46" t="s">
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
       <c r="J36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="5" t="s">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="E40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="44"/>
+      <c r="F46" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="19">
-        <v>3</v>
-      </c>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="E39" s="7"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="84"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="84"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="L47" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="F47" s="21"/>
-      <c r="L47" s="15"/>
-    </row>
     <row r="48" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="84"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="41" t="s">
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="F48" s="20"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="46" t="s">
+      <c r="E49" s="44"/>
+      <c r="F49" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="84"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="47"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50"/>
       <c r="J49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="22" t="s">
+      <c r="K49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="16">
-        <v>5</v>
+      <c r="L49" s="17">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="84"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="47"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
       <c r="J50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="22" t="s">
+      <c r="K50" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="33">
-        <v>6</v>
+      <c r="L50" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
       <c r="J51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="22" t="s">
+      <c r="K51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="16">
-        <v>4</v>
+      <c r="L51" s="32">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85"/>
-      <c r="E52" s="3"/>
-      <c r="L52" s="17"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="41" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="E53" s="3"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="46" t="s">
+      <c r="E54" s="44"/>
+      <c r="F54" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="84"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="16">
+      <c r="K54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="41" t="s">
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="46" t="s">
+      <c r="E57" s="44"/>
+      <c r="F57" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="50"/>
       <c r="J57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K57" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="16">
-        <v>2</v>
+      <c r="K57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="2"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="41" t="s">
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="59" t="s">
+      <c r="E60" s="44"/>
+      <c r="F60" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="60"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="74"/>
       <c r="J60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="59" t="s">
+    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="5" t="s">
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="22" t="s">
+      <c r="K62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="18">
+      <c r="L62" s="17">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="84"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="59" t="s">
+    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="5" t="s">
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K63" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L63" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="84"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="17"/>
-    </row>
     <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="84"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="41" t="s">
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="66" t="s">
+      <c r="E65" s="44"/>
+      <c r="F65" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="84"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="60"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
       <c r="J65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K65" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L65" s="5">
@@ -4082,20 +4125,20 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="84"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="60"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L66" s="5">
@@ -4103,20 +4146,20 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="84"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K67" s="22" t="s">
+      <c r="K67" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L67" s="5">
@@ -4124,20 +4167,20 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="84"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="60"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="74"/>
       <c r="J68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L68" s="5">
@@ -4145,20 +4188,20 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="84"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="74"/>
       <c r="J69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K69" s="22" t="s">
+      <c r="K69" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L69" s="5">
@@ -4166,20 +4209,20 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="84"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="74"/>
       <c r="J70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="22" t="s">
+      <c r="K70" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L70" s="5">
@@ -4187,56 +4230,56 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="84"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="84"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="64" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="59" t="s">
+      <c r="E73" s="44"/>
+      <c r="F73" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="84"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="60"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="22" t="s">
+      <c r="K73" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L73" s="11">
@@ -4244,20 +4287,20 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="84"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="74"/>
       <c r="J74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L74" s="11">
@@ -4265,96 +4308,96 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="84"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="84"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="46" t="s">
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="84"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="47"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
       <c r="J77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="84"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="50"/>
       <c r="J78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="K78" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L78" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="84"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="47"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
       <c r="J79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="K79" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L79" s="5">
@@ -4362,20 +4405,20 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="84"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="22" t="s">
+      <c r="K80" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L80" s="5">
@@ -4383,20 +4426,20 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="84"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="47"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
       <c r="J81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="22" t="s">
+      <c r="K81" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L81" s="5">
@@ -4404,76 +4447,76 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="84"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L83" s="5">
-        <v>7</v>
-      </c>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="K83"/>
+      <c r="L83"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="84"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="47"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="44"/>
+      <c r="F84" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="122"/>
+      <c r="H84" s="122"/>
+      <c r="I84" s="123"/>
       <c r="J84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="22" t="s">
+      <c r="K84" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L84" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="84"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="93"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="50"/>
       <c r="J85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="22" t="s">
+      <c r="K85" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L85" s="5">
@@ -4481,699 +4524,708 @@
       </c>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="84"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="84"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="47"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="123"/>
       <c r="J87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="K87" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L87" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B89" s="77"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="44"/>
+      <c r="F89" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="84"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K88" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L88" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" s="36" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="84"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-    </row>
-    <row r="90" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="84"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" s="51"/>
-      <c r="F90" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="54"/>
+    <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B90" s="77"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L90" s="39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" s="36" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B91" s="84"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-    </row>
-    <row r="92" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="84"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="113" t="s">
-        <v>176</v>
-      </c>
-      <c r="E92" s="114"/>
-      <c r="F92" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="54"/>
+      <c r="K90" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B91" s="77"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+    </row>
+    <row r="92" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B92" s="77"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="63"/>
+      <c r="F92" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="70"/>
       <c r="J92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K92" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="L92" s="39">
+      <c r="K92" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="84"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="117"/>
-      <c r="E93" s="118"/>
-      <c r="F93" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="L93" s="39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="84"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="117"/>
-      <c r="E94" s="118"/>
-      <c r="F94" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="54"/>
+    <row r="93" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B93" s="77"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+    </row>
+    <row r="94" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="77"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="54"/>
+      <c r="F94" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="70"/>
       <c r="J94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K94" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="L94" s="39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="84"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="118"/>
-      <c r="F95" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="54"/>
+      <c r="K94" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B95" s="77"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="70"/>
       <c r="J95" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K95" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="L95" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="84"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="116"/>
-      <c r="F96" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="54"/>
+      <c r="K95" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L95" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B96" s="77"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="70"/>
       <c r="J96" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K96" s="22" t="s">
+      <c r="K96" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L96" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B97" s="77"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L97" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B98" s="77"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B99" s="77"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L96" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" s="36" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="84"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-    </row>
-    <row r="98" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="84"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="48" t="s">
+      <c r="L99" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B100" s="77"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+    </row>
+    <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B101" s="77"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="66" t="s">
+      <c r="E101" s="52"/>
+      <c r="F101" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="4" t="s">
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="22" t="s">
+      <c r="K101" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="26"/>
-    </row>
-    <row r="100" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="86"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="94" t="s">
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B102" s="77"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="25"/>
+    </row>
+    <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B103" s="79"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="66" t="s">
+      <c r="E103" s="52"/>
+      <c r="F103" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="4" t="s">
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K100" s="22" t="s">
+      <c r="K103" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="18">
+      <c r="L103" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="102" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B102" s="82" t="s">
+    <row r="104" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="105" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B105" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="41" t="s">
+      <c r="C105" s="76"/>
+      <c r="D105" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="42"/>
-      <c r="F102" s="88" t="s">
+      <c r="E105" s="44"/>
+      <c r="F105" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K102" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L102" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="90"/>
-      <c r="J103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B104" s="84"/>
-      <c r="C104" s="85"/>
-    </row>
-    <row r="105" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B105" s="84"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E105" s="42"/>
-      <c r="F105" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" s="89"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="90"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="67"/>
       <c r="J105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K105" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L105" s="18">
+      <c r="K105" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="13">
         <v>28</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="84"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="90"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="67"/>
       <c r="J106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K106" s="22"/>
-      <c r="L106" s="16">
+      <c r="K106" s="21"/>
+      <c r="L106" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B107" s="84"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="88" t="s">
+      <c r="B107" s="77"/>
+      <c r="C107" s="78"/>
+    </row>
+    <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="77"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" s="44"/>
+      <c r="F108" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B109" s="77"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="21"/>
+      <c r="L109" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" s="77"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="5" t="s">
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K107" s="22" t="s">
+      <c r="K110" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L107" s="18">
+      <c r="L110" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="84"/>
-      <c r="C108" s="85"/>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B109" s="84"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="41" t="s">
+    <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B111" s="77"/>
+      <c r="C111" s="78"/>
+      <c r="L111" s="16"/>
+    </row>
+    <row r="112" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B112" s="77"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="E109" s="42"/>
-      <c r="F109" s="88" t="s">
+      <c r="E112" s="44"/>
+      <c r="F112" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="5" t="s">
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="22" t="s">
+      <c r="K112" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L112" s="17">
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B110" s="84"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="88" t="s">
+    <row r="113" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B113" s="77"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="22"/>
-      <c r="L110" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="84"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" s="89"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="90"/>
-      <c r="J111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K111" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L111" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B112" s="84"/>
-      <c r="C112" s="85"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="84"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="42"/>
-      <c r="F113" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G113" s="89"/>
-      <c r="H113" s="89"/>
-      <c r="I113" s="90"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="67"/>
       <c r="J113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="22" t="s">
+      <c r="K113" s="21"/>
+      <c r="L113" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B114" s="77"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B115" s="77"/>
+      <c r="C115" s="78"/>
+      <c r="L115" s="16"/>
+    </row>
+    <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B116" s="77"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="44"/>
+      <c r="F116" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L113" s="13">
+      <c r="L116" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A114" s="1"/>
-      <c r="B114" s="84"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="88" t="s">
+    <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G114" s="89"/>
-      <c r="H114" s="89"/>
-      <c r="I114" s="90"/>
-      <c r="J114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="22"/>
-      <c r="L114" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B115" s="84"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="90"/>
-      <c r="J115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K115" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L115" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B116" s="84"/>
-      <c r="C116" s="85"/>
-      <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B117" s="84"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E117" s="42"/>
-      <c r="F117" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="67"/>
       <c r="J117" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="22" t="s">
+      <c r="K117" s="21"/>
+      <c r="L117" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B118" s="77"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B119" s="77"/>
+      <c r="C119" s="78"/>
+      <c r="L119" s="16"/>
+    </row>
+    <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B120" s="77"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="44"/>
+      <c r="F120" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="66"/>
+      <c r="J120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L117" s="18">
+      <c r="L120" s="17">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="84"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="88" t="s">
+    <row r="121" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B121" s="77"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="G118" s="89"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="5" t="s">
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="22"/>
-      <c r="L118" s="18">
+      <c r="K121" s="21"/>
+      <c r="L121" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="84"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="88" t="s">
+    <row r="122" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B122" s="77"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="89"/>
-      <c r="J119" s="5" t="s">
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K119" s="22" t="s">
+      <c r="K122" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L119" s="16">
+      <c r="L122" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B120" s="84"/>
-      <c r="C120" s="85"/>
-    </row>
-    <row r="121" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B121" s="84"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="64" t="s">
+    <row r="123" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B123" s="77"/>
+      <c r="C123" s="78"/>
+    </row>
+    <row r="124" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B124" s="77"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E121" s="42"/>
-      <c r="F121" s="88" t="s">
+      <c r="E124" s="44"/>
+      <c r="F124" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="90"/>
-      <c r="J121" s="5" t="s">
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K121" s="22" t="s">
+      <c r="K124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L124" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="84"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="88" t="s">
+    <row r="125" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B125" s="77"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="G122" s="89"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="90"/>
-      <c r="J122" s="5" t="s">
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L125" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B123" s="84"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B124" s="84"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G124" s="89"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="90"/>
-      <c r="J124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K124" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L124" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B125" s="84"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="90"/>
-      <c r="J125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K125" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L125" s="5">
-        <v>3</v>
-      </c>
-    </row>
     <row r="126" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B126" s="84"/>
-      <c r="C126" s="85"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="78"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5181,208 +5233,205 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B127" s="84"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="41" t="s">
+    <row r="127" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B127" s="77"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E127" s="44"/>
+      <c r="F127" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K127" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L127" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B128" s="77"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L128" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B129" s="77"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B130" s="77"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="42"/>
-      <c r="F127" s="88" t="s">
+      <c r="E130" s="44"/>
+      <c r="F130" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G127" s="89"/>
-      <c r="H127" s="89"/>
-      <c r="I127" s="90"/>
-      <c r="J127" s="5" t="s">
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K127" s="22" t="s">
+      <c r="K130" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L127" s="5">
+      <c r="L130" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B128" s="84"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="88" t="s">
+    <row r="131" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B131" s="77"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G128" s="89"/>
-      <c r="H128" s="89"/>
-      <c r="I128" s="90"/>
-      <c r="J128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K128" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L128" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B129" s="84"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G129" s="89"/>
-      <c r="H129" s="89"/>
-      <c r="I129" s="90"/>
-      <c r="J129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L129" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B130" s="84"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B131" s="86"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="49"/>
-      <c r="F131" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" s="99"/>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="67"/>
       <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K131" s="5" t="s">
+      <c r="K131" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L131" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B132" s="77"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L132" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B133" s="77"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B134" s="79"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" s="52"/>
+      <c r="F134" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="104"/>
+      <c r="H134" s="104"/>
+      <c r="I134" s="104"/>
+      <c r="J134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K134" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L131" s="18">
+      <c r="L134" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-    </row>
-    <row r="134" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B134" s="82"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="48" t="s">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E134" s="49"/>
-      <c r="F134" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="5" t="s">
+      <c r="E137" s="44"/>
+      <c r="F137" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K134" s="22" t="s">
+      <c r="K137" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L134" s="32">
+      <c r="L137" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B135" s="84"/>
-      <c r="C135" s="85"/>
-      <c r="D135" s="112"/>
-      <c r="E135" s="112"/>
-      <c r="F135" s="119"/>
-      <c r="G135" s="119"/>
-      <c r="H135" s="119"/>
-      <c r="I135" s="119"/>
-      <c r="J135" s="112"/>
-      <c r="K135" s="119"/>
-      <c r="L135" s="112"/>
-    </row>
-    <row r="136" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B136" s="84"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E136" s="42"/>
-      <c r="F136" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K136" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L136" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B137" s="84"/>
-      <c r="C137" s="85"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="58"/>
-      <c r="F137" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L137" s="5">
-        <v>3</v>
-      </c>
-    </row>
     <row r="138" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B138" s="84"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="47"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="22" t="s">
+      <c r="K138" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L138" s="5">
@@ -5390,1617 +5439,1668 @@
       </c>
     </row>
     <row r="139" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B139" s="84"/>
-      <c r="C139" s="85"/>
-      <c r="D139" s="112"/>
-      <c r="E139" s="112"/>
-      <c r="F139" s="119"/>
-      <c r="G139" s="119"/>
-      <c r="H139" s="119"/>
-      <c r="I139" s="119"/>
-      <c r="J139" s="112"/>
-      <c r="K139" s="119"/>
-      <c r="L139" s="112"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="40"/>
     </row>
     <row r="140" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B140" s="84"/>
-      <c r="C140" s="85"/>
-      <c r="D140" s="48" t="s">
+      <c r="B140" s="77"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="44"/>
+      <c r="F140" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="G140" s="49"/>
+      <c r="H140" s="49"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K140" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L140" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B141" s="77"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G141" s="49"/>
+      <c r="H141" s="49"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L141" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B142" s="77"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B143" s="77"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="41"/>
+      <c r="L143" s="40"/>
+    </row>
+    <row r="144" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B144" s="77"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E140" s="49"/>
-      <c r="F140" s="66" t="s">
+      <c r="E144" s="52"/>
+      <c r="F144" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G140" s="59"/>
-      <c r="H140" s="59"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="5" t="s">
+      <c r="G144" s="73"/>
+      <c r="H144" s="73"/>
+      <c r="I144" s="74"/>
+      <c r="J144" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="22" t="s">
+      <c r="K144" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L144" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="84"/>
-      <c r="C141" s="85"/>
-    </row>
-    <row r="142" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B142" s="84"/>
-      <c r="C142" s="85"/>
-      <c r="D142" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="E142" s="42"/>
-      <c r="F142" s="46" t="s">
+    <row r="145" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B145" s="77"/>
+      <c r="C145" s="78"/>
+    </row>
+    <row r="146" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B146" s="77"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" s="44"/>
+      <c r="F146" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K142" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L142" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B143" s="84"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G143" s="59"/>
-      <c r="H143" s="59"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L143" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B144" s="84"/>
-      <c r="C144" s="85"/>
-    </row>
-    <row r="145" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B145" s="84"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E145" s="42"/>
-      <c r="F145" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G145" s="59"/>
-      <c r="H145" s="59"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L145" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B146" s="84"/>
-      <c r="C146" s="85"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
-      <c r="I146" s="47"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="50"/>
       <c r="J146" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="22" t="s">
+      <c r="K146" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L146" s="16">
+      <c r="L146" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B147" s="77"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="47"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G147" s="73"/>
+      <c r="H147" s="73"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L147" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B148" s="77"/>
+      <c r="C148" s="78"/>
+    </row>
+    <row r="149" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B149" s="77"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" s="44"/>
+      <c r="F149" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="73"/>
+      <c r="H149" s="73"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L149" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B150" s="77"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G150" s="49"/>
+      <c r="H150" s="49"/>
+      <c r="I150" s="50"/>
+      <c r="J150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K150" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B147" s="84"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B148" s="84"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="41" t="s">
+    <row r="151" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B151" s="77"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B152" s="77"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" s="44"/>
+      <c r="F152" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="G152" s="49"/>
+      <c r="H152" s="49"/>
+      <c r="I152" s="50"/>
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B153" s="77"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="46"/>
+      <c r="F153" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="G153" s="73"/>
+      <c r="H153" s="73"/>
+      <c r="I153" s="74"/>
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L153" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B154" s="77"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="71"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G154" s="49"/>
+      <c r="H154" s="49"/>
+      <c r="I154" s="50"/>
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B155" s="77"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G155" s="73"/>
+      <c r="H155" s="73"/>
+      <c r="I155" s="74"/>
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L155" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B156" s="77"/>
+      <c r="C156" s="78"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B157" s="77"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E148" s="42"/>
-      <c r="F148" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
-      <c r="I148" s="47"/>
-      <c r="J148" s="4" t="s">
+      <c r="E157" s="44"/>
+      <c r="F157" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G157" s="49"/>
+      <c r="H157" s="49"/>
+      <c r="I157" s="50"/>
+      <c r="J157" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L148" s="5">
+      <c r="K157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L157" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B158" s="77"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L158" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B149" s="84"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="G149" s="59"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L149" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B150" s="84"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
-      <c r="I150" s="47"/>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L150" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B151" s="84"/>
-      <c r="C151" s="85"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L151" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B152" s="84"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B153" s="84"/>
-      <c r="C153" s="85"/>
-      <c r="D153" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="E153" s="42"/>
-      <c r="F153" s="46" t="s">
+    <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B159" s="77"/>
+      <c r="C159" s="78"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+    </row>
+    <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B160" s="77"/>
+      <c r="C160" s="78"/>
+      <c r="D160" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L153" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B154" s="84"/>
-      <c r="C154" s="85"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G154" s="46"/>
-      <c r="H154" s="46"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L154" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B155" s="84"/>
-      <c r="C155" s="85"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="28"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="28"/>
-    </row>
-    <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B156" s="84"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E156" s="94"/>
-      <c r="F156" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G156" s="46"/>
-      <c r="H156" s="46"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K156" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L156" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B157" s="84"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
-    </row>
-    <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B158" s="84"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E158" s="42"/>
-      <c r="F158" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="G158" s="46"/>
-      <c r="H158" s="46"/>
-      <c r="I158" s="46"/>
-      <c r="J158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K158" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L158" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B159" s="84"/>
-      <c r="C159" s="85"/>
-      <c r="D159" s="100"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K159" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L159" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B160" s="84"/>
-      <c r="C160" s="85"/>
-      <c r="D160" s="100"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="G160" s="96"/>
-      <c r="H160" s="96"/>
-      <c r="I160" s="97"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+      <c r="I160" s="50"/>
       <c r="J160" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K160" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L160" s="18">
-        <v>4</v>
+      <c r="K160" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B161" s="84"/>
-      <c r="C161" s="85"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="G161" s="122"/>
-      <c r="H161" s="122"/>
-      <c r="I161" s="123"/>
-      <c r="J161" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K161" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L161" s="32">
-        <v>7</v>
-      </c>
+      <c r="B161" s="77"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
     </row>
     <row r="162" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B162" s="84"/>
-      <c r="C162" s="85"/>
-      <c r="D162" s="65"/>
+      <c r="B162" s="77"/>
+      <c r="C162" s="78"/>
+      <c r="D162" s="43" t="s">
+        <v>219</v>
+      </c>
       <c r="E162" s="44"/>
-      <c r="F162" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="G162" s="122"/>
-      <c r="H162" s="122"/>
-      <c r="I162" s="123"/>
+      <c r="F162" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="50"/>
       <c r="J162" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K162" s="22" t="s">
+      <c r="K162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B163" s="77"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" s="49"/>
+      <c r="H163" s="49"/>
+      <c r="I163" s="50"/>
+      <c r="J163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B164" s="77"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="42"/>
+    </row>
+    <row r="165" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B165" s="77"/>
+      <c r="C165" s="78"/>
+      <c r="D165" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" s="52"/>
+      <c r="F165" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K165" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B166" s="77"/>
+      <c r="C166" s="78"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="42"/>
+    </row>
+    <row r="167" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B167" s="77"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E167" s="44"/>
+      <c r="F167" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="G167" s="101"/>
+      <c r="H167" s="101"/>
+      <c r="I167" s="102"/>
+      <c r="J167" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K167" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B163" s="84"/>
-      <c r="C163" s="85"/>
-    </row>
-    <row r="164" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B164" s="84"/>
-      <c r="C164" s="85"/>
-      <c r="D164" s="41" t="s">
+    <row r="168" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B168" s="77"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="45"/>
+      <c r="E168" s="46"/>
+      <c r="F168" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="G168" s="98"/>
+      <c r="H168" s="98"/>
+      <c r="I168" s="99"/>
+      <c r="J168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K168" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L168" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B169" s="77"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="G169" s="98"/>
+      <c r="H169" s="98"/>
+      <c r="I169" s="99"/>
+      <c r="J169" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K169" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L169" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B170" s="77"/>
+      <c r="C170" s="78"/>
+    </row>
+    <row r="171" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B171" s="77"/>
+      <c r="C171" s="78"/>
+      <c r="D171" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E171" s="44"/>
+      <c r="F171" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K171" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L171" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B172" s="77"/>
+      <c r="C172" s="78"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E164" s="42"/>
-      <c r="F164" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="47"/>
-      <c r="J164" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K164" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L164" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B165" s="84"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="G165" s="46"/>
-      <c r="H165" s="46"/>
-      <c r="I165" s="47"/>
-      <c r="J165" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K165" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L165" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B166" s="84"/>
-      <c r="C166" s="85"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G166" s="46"/>
-      <c r="H166" s="46"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K166" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L166" s="35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B167" s="84"/>
-      <c r="C167" s="85"/>
-      <c r="D167" s="43"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G167" s="46"/>
-      <c r="H167" s="46"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K167" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L167" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B168" s="84"/>
-      <c r="C168" s="85"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="57"/>
-    </row>
-    <row r="169" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="84"/>
-      <c r="C169" s="85"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="57"/>
-      <c r="I169" s="57"/>
-    </row>
-    <row r="170" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B170" s="84"/>
-      <c r="C170" s="85"/>
-      <c r="D170" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="E170" s="42"/>
-      <c r="F170" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="47"/>
-      <c r="J170" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K170" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L170" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B171" s="84"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="100"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L171" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B172" s="84"/>
-      <c r="C172" s="85"/>
-      <c r="D172" s="100"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="47"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="50"/>
       <c r="J172" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K172" s="22" t="s">
+      <c r="K172" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L172" s="5">
-        <v>20</v>
+      <c r="L172" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B173" s="84"/>
-      <c r="C173" s="85"/>
-      <c r="D173" s="100"/>
-      <c r="E173" s="58"/>
-      <c r="F173" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="47"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="71"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="50"/>
       <c r="J173" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K173" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L173" s="5">
+      <c r="K173" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L173" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="174" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B174" s="84"/>
-      <c r="C174" s="85"/>
-      <c r="D174" s="100"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="47"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
+      <c r="I174" s="50"/>
       <c r="J174" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K174" s="119" t="s">
-        <v>178</v>
-      </c>
-      <c r="L174" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B175" s="84"/>
-      <c r="C175" s="85"/>
-      <c r="D175" s="100"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="G175" s="53"/>
-      <c r="H175" s="53"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K175" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="L175" s="39">
-        <v>15</v>
-      </c>
+      <c r="K174" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B175" s="77"/>
+      <c r="C175" s="78"/>
+      <c r="F175" s="71"/>
+      <c r="G175" s="71"/>
+      <c r="H175" s="71"/>
+      <c r="I175" s="71"/>
     </row>
     <row r="176" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B176" s="84"/>
-      <c r="C176" s="85"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="G176" s="46"/>
-      <c r="H176" s="46"/>
-      <c r="I176" s="47"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="78"/>
+      <c r="D176" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E176" s="52"/>
+      <c r="F176" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="50"/>
       <c r="J176" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K176" s="40" t="s">
-        <v>178</v>
+      <c r="K176" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="L176" s="5">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B177" s="84"/>
-      <c r="C177" s="85"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="34"/>
-      <c r="I177" s="34"/>
-      <c r="K177" s="34"/>
-      <c r="L177" s="34"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="78"/>
+      <c r="F177" s="71"/>
+      <c r="G177" s="71"/>
+      <c r="H177" s="71"/>
+      <c r="I177" s="71"/>
     </row>
     <row r="178" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B178" s="84"/>
-      <c r="C178" s="85"/>
-      <c r="D178" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E178" s="42"/>
-      <c r="F178" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="G178" s="59"/>
-      <c r="H178" s="59"/>
-      <c r="I178" s="60"/>
+      <c r="B178" s="77"/>
+      <c r="C178" s="78"/>
+      <c r="D178" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178" s="44"/>
+      <c r="F178" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="50"/>
       <c r="J178" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L178" s="18">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="K178" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L178" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B179" s="84"/>
-      <c r="C179" s="85"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="G179" s="59"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="60"/>
+      <c r="B179" s="77"/>
+      <c r="C179" s="78"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="50"/>
       <c r="J179" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="22" t="s">
+      <c r="K179" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L179" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B180" s="77"/>
+      <c r="C180" s="78"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
+      <c r="I180" s="50"/>
+      <c r="J180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K180" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L180" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B181" s="77"/>
+      <c r="C181" s="78"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="46"/>
+      <c r="F181" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G181" s="49"/>
+      <c r="H181" s="49"/>
+      <c r="I181" s="50"/>
+      <c r="J181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K181" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L181" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B182" s="77"/>
+      <c r="C182" s="78"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G182" s="49"/>
+      <c r="H182" s="49"/>
+      <c r="I182" s="50"/>
+      <c r="J182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K182" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L182" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B183" s="77"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="50"/>
+      <c r="J183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K183" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L183" s="5">
         <v>5</v>
       </c>
-      <c r="L179" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B180" s="84"/>
-      <c r="C180" s="85"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L180" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B181" s="84"/>
-      <c r="C181" s="85"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L181" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B182" s="84"/>
-      <c r="C182" s="85"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="60"/>
-      <c r="J182" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L182" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B183" s="84"/>
-      <c r="C183" s="85"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="60"/>
-      <c r="J183" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L183" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B184" s="84"/>
-      <c r="C184" s="85"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="60"/>
+    </row>
+    <row r="184" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B184" s="77"/>
+      <c r="C184" s="78"/>
+      <c r="D184" s="45"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G184" s="69"/>
+      <c r="H184" s="69"/>
+      <c r="I184" s="70"/>
       <c r="J184" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L184" s="18">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="K184" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L184" s="38">
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B185" s="84"/>
-      <c r="C185" s="85"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="60"/>
+      <c r="B185" s="77"/>
+      <c r="C185" s="78"/>
+      <c r="D185" s="47"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="50"/>
       <c r="J185" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L185" s="18">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="K185" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="L185" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B186" s="84"/>
-      <c r="C186" s="85"/>
+      <c r="B186" s="77"/>
+      <c r="C186" s="78"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
+      <c r="K186" s="33"/>
+      <c r="L186" s="33"/>
     </row>
     <row r="187" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B187" s="84"/>
-      <c r="C187" s="85"/>
-      <c r="D187" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E187" s="42"/>
-      <c r="F187" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="60"/>
+      <c r="B187" s="77"/>
+      <c r="C187" s="78"/>
+      <c r="D187" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E187" s="44"/>
+      <c r="F187" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G187" s="73"/>
+      <c r="H187" s="73"/>
+      <c r="I187" s="74"/>
       <c r="J187" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K187" s="22" t="s">
+      <c r="K187" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L187" s="18">
-        <v>6</v>
+      <c r="L187" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B188" s="84"/>
-      <c r="C188" s="85"/>
-      <c r="D188" s="57"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="60"/>
+      <c r="B188" s="77"/>
+      <c r="C188" s="78"/>
+      <c r="D188" s="71"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G188" s="73"/>
+      <c r="H188" s="73"/>
+      <c r="I188" s="74"/>
       <c r="J188" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K188" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L188" s="18">
-        <v>6</v>
+      <c r="L188" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B189" s="84"/>
-      <c r="C189" s="85"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="G189" s="59"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="60"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="78"/>
+      <c r="D189" s="71"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G189" s="73"/>
+      <c r="H189" s="73"/>
+      <c r="I189" s="74"/>
       <c r="J189" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K189" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L189" s="18">
-        <v>6</v>
+      <c r="L189" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B190" s="84"/>
-      <c r="C190" s="85"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="G190" s="59"/>
-      <c r="H190" s="59"/>
-      <c r="I190" s="60"/>
+      <c r="B190" s="77"/>
+      <c r="C190" s="78"/>
+      <c r="D190" s="71"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G190" s="73"/>
+      <c r="H190" s="73"/>
+      <c r="I190" s="74"/>
       <c r="J190" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="22" t="s">
+      <c r="K190" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L190" s="18">
+      <c r="L190" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B191" s="77"/>
+      <c r="C191" s="78"/>
+      <c r="D191" s="71"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G191" s="73"/>
+      <c r="H191" s="73"/>
+      <c r="I191" s="74"/>
+      <c r="J191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L191" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B192" s="77"/>
+      <c r="C192" s="78"/>
+      <c r="D192" s="71"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G192" s="73"/>
+      <c r="H192" s="73"/>
+      <c r="I192" s="74"/>
+      <c r="J192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L192" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B193" s="77"/>
+      <c r="C193" s="78"/>
+      <c r="D193" s="71"/>
+      <c r="E193" s="46"/>
+      <c r="F193" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G193" s="73"/>
+      <c r="H193" s="73"/>
+      <c r="I193" s="74"/>
+      <c r="J193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L193" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B194" s="77"/>
+      <c r="C194" s="78"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G194" s="73"/>
+      <c r="H194" s="73"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L194" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B195" s="77"/>
+      <c r="C195" s="78"/>
+    </row>
+    <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B196" s="77"/>
+      <c r="C196" s="78"/>
+      <c r="D196" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" s="44"/>
+      <c r="F196" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="G196" s="73"/>
+      <c r="H196" s="73"/>
+      <c r="I196" s="74"/>
+      <c r="J196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L196" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B191" s="84"/>
-      <c r="C191" s="85"/>
-    </row>
-    <row r="192" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B192" s="84"/>
-      <c r="C192" s="85"/>
-      <c r="D192" s="41" t="s">
+    <row r="197" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B197" s="77"/>
+      <c r="C197" s="78"/>
+      <c r="D197" s="71"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G197" s="73"/>
+      <c r="H197" s="73"/>
+      <c r="I197" s="74"/>
+      <c r="J197" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K197" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L197" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B198" s="77"/>
+      <c r="C198" s="78"/>
+      <c r="D198" s="71"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G198" s="73"/>
+      <c r="H198" s="73"/>
+      <c r="I198" s="74"/>
+      <c r="J198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L198" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B199" s="77"/>
+      <c r="C199" s="78"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G199" s="73"/>
+      <c r="H199" s="73"/>
+      <c r="I199" s="74"/>
+      <c r="J199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L199" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B200" s="77"/>
+      <c r="C200" s="78"/>
+    </row>
+    <row r="201" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B201" s="77"/>
+      <c r="C201" s="78"/>
+      <c r="D201" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E201" s="44"/>
+      <c r="F201" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G201" s="49"/>
+      <c r="H201" s="49"/>
+      <c r="I201" s="50"/>
+      <c r="J201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K201" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B202" s="77"/>
+      <c r="C202" s="78"/>
+      <c r="D202" s="71"/>
+      <c r="E202" s="46"/>
+      <c r="F202" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E192" s="42"/>
-      <c r="F192" s="45" t="s">
+      <c r="G202" s="49"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="50"/>
+      <c r="J202" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K202" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B203" s="77"/>
+      <c r="C203" s="78"/>
+      <c r="D203" s="71"/>
+      <c r="E203" s="46"/>
+      <c r="F203" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="47"/>
-      <c r="J192" s="5" t="s">
+      <c r="G203" s="49"/>
+      <c r="H203" s="49"/>
+      <c r="I203" s="50"/>
+      <c r="J203" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K192" s="22" t="s">
+      <c r="K203" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L192" s="35">
+      <c r="L203" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B204" s="77"/>
+      <c r="C204" s="78"/>
+      <c r="D204" s="61"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G204" s="49"/>
+      <c r="H204" s="49"/>
+      <c r="I204" s="50"/>
+      <c r="J204" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B193" s="84"/>
-      <c r="C193" s="85"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="G193" s="46"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="47"/>
-      <c r="J193" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K193" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L193" s="35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B194" s="84"/>
-      <c r="C194" s="85"/>
-      <c r="D194" s="57"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="45" t="s">
+    <row r="205" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B205" s="77"/>
+      <c r="C205" s="78"/>
+    </row>
+    <row r="206" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B206" s="77"/>
+      <c r="C206" s="78"/>
+      <c r="D206" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="47"/>
-      <c r="J194" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K194" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L194" s="35">
+      <c r="E206" s="44"/>
+      <c r="F206" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="G206" s="73"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K206" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B195" s="84"/>
-      <c r="C195" s="85"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="47"/>
-      <c r="J195" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L195" s="35">
+      <c r="L206" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B196" s="84"/>
-      <c r="C196" s="85"/>
-    </row>
-    <row r="197" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B197" s="84"/>
-      <c r="C197" s="85"/>
-      <c r="D197" s="41" t="s">
+    <row r="207" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B207" s="77"/>
+      <c r="C207" s="78"/>
+      <c r="D207" s="71"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E197" s="42"/>
-      <c r="F197" s="66" t="s">
+      <c r="G207" s="73"/>
+      <c r="H207" s="73"/>
+      <c r="I207" s="74"/>
+      <c r="J207" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K207" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L207" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B208" s="77"/>
+      <c r="C208" s="78"/>
+      <c r="D208" s="71"/>
+      <c r="E208" s="46"/>
+      <c r="F208" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G197" s="59"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="60"/>
-      <c r="J197" s="5" t="s">
+      <c r="G208" s="73"/>
+      <c r="H208" s="73"/>
+      <c r="I208" s="74"/>
+      <c r="J208" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K197" s="22" t="s">
+      <c r="K208" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L197" s="18">
+      <c r="L208" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B198" s="84"/>
-      <c r="C198" s="85"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="66" t="s">
+    <row r="209" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B209" s="77"/>
+      <c r="C209" s="78"/>
+      <c r="D209" s="71"/>
+      <c r="E209" s="46"/>
+      <c r="F209" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="60"/>
-      <c r="J198" s="5" t="s">
+      <c r="G209" s="73"/>
+      <c r="H209" s="73"/>
+      <c r="I209" s="74"/>
+      <c r="J209" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K198" s="22" t="s">
+      <c r="K209" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L198" s="18">
+      <c r="L209" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B199" s="84"/>
-      <c r="C199" s="85"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="66" t="s">
+    <row r="210" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B210" s="77"/>
+      <c r="C210" s="78"/>
+      <c r="D210" s="71"/>
+      <c r="E210" s="46"/>
+      <c r="F210" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="60"/>
-      <c r="J199" s="5" t="s">
+      <c r="G210" s="73"/>
+      <c r="H210" s="73"/>
+      <c r="I210" s="74"/>
+      <c r="J210" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K199" s="22" t="s">
+      <c r="K210" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L199" s="18">
+      <c r="L210" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B200" s="84"/>
-      <c r="C200" s="85"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="66" t="s">
+    <row r="211" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B211" s="77"/>
+      <c r="C211" s="78"/>
+      <c r="D211" s="71"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="60"/>
-      <c r="J200" s="5" t="s">
+      <c r="G211" s="73"/>
+      <c r="H211" s="73"/>
+      <c r="I211" s="74"/>
+      <c r="J211" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K200" s="22" t="s">
+      <c r="K211" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L200" s="18">
+      <c r="L211" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B201" s="84"/>
-      <c r="C201" s="85"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="66" t="s">
+    <row r="212" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B212" s="77"/>
+      <c r="C212" s="78"/>
+      <c r="D212" s="71"/>
+      <c r="E212" s="46"/>
+      <c r="F212" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="60"/>
-      <c r="J201" s="5" t="s">
+      <c r="G212" s="73"/>
+      <c r="H212" s="73"/>
+      <c r="I212" s="74"/>
+      <c r="J212" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K201" s="22" t="s">
+      <c r="K212" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L201" s="18">
+      <c r="L212" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B202" s="84"/>
-      <c r="C202" s="85"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="66" t="s">
+    <row r="213" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B213" s="77"/>
+      <c r="C213" s="78"/>
+      <c r="D213" s="61"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="60"/>
-      <c r="J202" s="5" t="s">
+      <c r="G213" s="73"/>
+      <c r="H213" s="73"/>
+      <c r="I213" s="74"/>
+      <c r="J213" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K202" s="22" t="s">
+      <c r="K213" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L202" s="18">
+      <c r="L213" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B203" s="84"/>
-      <c r="C203" s="85"/>
-      <c r="D203" s="57"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="66" t="s">
+    <row r="214" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B214" s="77"/>
+      <c r="C214" s="78"/>
+      <c r="F214" s="71"/>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="71"/>
+    </row>
+    <row r="215" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B215" s="77"/>
+      <c r="C215" s="78"/>
+      <c r="D215" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G203" s="59"/>
-      <c r="H203" s="59"/>
-      <c r="I203" s="60"/>
-      <c r="J203" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K203" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L203" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B204" s="84"/>
-      <c r="C204" s="85"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="44"/>
-      <c r="F204" s="66" t="s">
+      <c r="E215" s="44"/>
+      <c r="F215" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="60"/>
-      <c r="J204" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K204" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L204" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B205" s="84"/>
-      <c r="C205" s="85"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="57"/>
-      <c r="I205" s="57"/>
-    </row>
-    <row r="206" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B206" s="84"/>
-      <c r="C206" s="85"/>
-      <c r="D206" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E206" s="42"/>
-      <c r="F206" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="G206" s="59"/>
-      <c r="H206" s="59"/>
-      <c r="I206" s="59"/>
-      <c r="J206" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L206" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B207" s="84"/>
-      <c r="C207" s="85"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="60"/>
-      <c r="J207" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L207" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B208" s="84"/>
-      <c r="C208" s="85"/>
-      <c r="D208" s="43"/>
-      <c r="E208" s="44"/>
-      <c r="F208" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
-      <c r="J208" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L208" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B209" s="84"/>
-      <c r="C209" s="85"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="23"/>
-      <c r="L209" s="17"/>
-    </row>
-    <row r="210" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B210" s="84"/>
-      <c r="C210" s="85"/>
-      <c r="D210" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E210" s="42"/>
-      <c r="F210" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="60"/>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L210" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B211" s="86"/>
-      <c r="C211" s="87"/>
-      <c r="D211" s="43"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="G211" s="59"/>
-      <c r="H211" s="59"/>
-      <c r="I211" s="60"/>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L211" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B212" s="24"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="3"/>
-      <c r="J212" s="4"/>
-      <c r="K212" s="23"/>
-      <c r="L212" s="2"/>
-    </row>
-    <row r="213" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B213" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C213" s="77"/>
-      <c r="D213" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="E213" s="42"/>
-      <c r="F213" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="G213" s="102"/>
-      <c r="H213" s="102"/>
-      <c r="I213" s="103"/>
-      <c r="J213" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L213" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="M213" s="49"/>
-    </row>
-    <row r="214" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B214" s="110"/>
-      <c r="C214" s="111"/>
-      <c r="D214" s="100"/>
-      <c r="E214" s="58"/>
-      <c r="F214" s="104"/>
-      <c r="G214" s="105"/>
-      <c r="H214" s="105"/>
-      <c r="I214" s="106"/>
-      <c r="J214" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="L214" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="M214" s="49"/>
-    </row>
-    <row r="215" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B215" s="78"/>
-      <c r="C215" s="79"/>
-      <c r="D215" s="65"/>
-      <c r="E215" s="44"/>
-      <c r="F215" s="107"/>
-      <c r="G215" s="108"/>
-      <c r="H215" s="108"/>
-      <c r="I215" s="109"/>
+      <c r="G215" s="73"/>
+      <c r="H215" s="73"/>
+      <c r="I215" s="73"/>
       <c r="J215" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K215" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="L215" s="48" t="s">
+      <c r="K215" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L215" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B216" s="77"/>
+      <c r="C216" s="78"/>
+      <c r="D216" s="71"/>
+      <c r="E216" s="46"/>
+      <c r="F216" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G216" s="73"/>
+      <c r="H216" s="73"/>
+      <c r="I216" s="74"/>
+      <c r="J216" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L216" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B217" s="77"/>
+      <c r="C217" s="78"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="G217" s="73"/>
+      <c r="H217" s="73"/>
+      <c r="I217" s="73"/>
+      <c r="J217" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L217" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B218" s="77"/>
+      <c r="C218" s="78"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="22"/>
+      <c r="L218" s="16"/>
+    </row>
+    <row r="219" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B219" s="77"/>
+      <c r="C219" s="78"/>
+      <c r="D219" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E219" s="44"/>
+      <c r="F219" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="G219" s="73"/>
+      <c r="H219" s="73"/>
+      <c r="I219" s="74"/>
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L219" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B220" s="79"/>
+      <c r="C220" s="80"/>
+      <c r="D220" s="61"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="G220" s="73"/>
+      <c r="H220" s="73"/>
+      <c r="I220" s="74"/>
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L220" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B221" s="23"/>
+      <c r="C221" s="23"/>
+      <c r="D221" s="3"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="22"/>
+      <c r="L221" s="2"/>
+    </row>
+    <row r="222" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B222" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" s="91"/>
+      <c r="D222" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E222" s="44"/>
+      <c r="F222" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="G222" s="82"/>
+      <c r="H222" s="82"/>
+      <c r="I222" s="83"/>
+      <c r="J222" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L222" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="M222" s="52"/>
+    </row>
+    <row r="223" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B223" s="92"/>
+      <c r="C223" s="93"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="46"/>
+      <c r="F223" s="84"/>
+      <c r="G223" s="85"/>
+      <c r="H223" s="85"/>
+      <c r="I223" s="86"/>
+      <c r="J223" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L223" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="M223" s="52"/>
+    </row>
+    <row r="224" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B224" s="94"/>
+      <c r="C224" s="95"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="87"/>
+      <c r="G224" s="88"/>
+      <c r="H224" s="88"/>
+      <c r="I224" s="89"/>
+      <c r="J224" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M215" s="49"/>
-    </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D217" s="57"/>
-      <c r="E217" s="57"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="57"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
+      <c r="L224" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="M224" s="52"/>
+    </row>
+    <row r="225" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="I225" s="7"/>
+    </row>
+    <row r="226" spans="4:10" x14ac:dyDescent="0.45">
+      <c r="D226" s="71"/>
+      <c r="E226" s="71"/>
+      <c r="F226" s="71"/>
+      <c r="G226" s="71"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="D170:E176"/>
-    <mergeCell ref="F176:I176"/>
+  <mergeCells count="225">
+    <mergeCell ref="D60:E63"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="D73:E82"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
     <mergeCell ref="F84:I84"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="D136:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="D158:E162"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="L214:M214"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="F210:I210"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="D210:E211"/>
-    <mergeCell ref="B134:C211"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="F205:I205"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="D145:E146"/>
-    <mergeCell ref="F164:I164"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D213:E215"/>
-    <mergeCell ref="F213:I215"/>
-    <mergeCell ref="B213:C215"/>
-    <mergeCell ref="D148:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="F148:I148"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="F194:I194"/>
-    <mergeCell ref="F199:I199"/>
-    <mergeCell ref="F198:I198"/>
-    <mergeCell ref="F206:I206"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="F208:I208"/>
-    <mergeCell ref="D206:E208"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="F167:I167"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F161:I161"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="B102:C131"/>
-    <mergeCell ref="D124:E125"/>
-    <mergeCell ref="D64:E70"/>
-    <mergeCell ref="D127:E129"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F169:I169"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="D164:E167"/>
-    <mergeCell ref="F168:I168"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F70:I70"/>
     <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F128:I128"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="D197:E204"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="F190:I190"/>
-    <mergeCell ref="D178:E185"/>
-    <mergeCell ref="F192:I192"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="D187:E190"/>
-    <mergeCell ref="D192:E195"/>
-    <mergeCell ref="D142:E143"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F159:I159"/>
-    <mergeCell ref="F181:I181"/>
-    <mergeCell ref="F203:I203"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F166:I166"/>
-    <mergeCell ref="D117:E119"/>
     <mergeCell ref="F117:I117"/>
     <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="D105:E107"/>
-    <mergeCell ref="D102:E103"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="D113:E115"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="D109:E111"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="D92:E96"/>
-    <mergeCell ref="D72:E81"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D22:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="D43:E44"/>
     <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D87:E88"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="D49:E52"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="D17:I17"/>
@@ -7016,51 +7116,183 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C100"/>
-    <mergeCell ref="D31:E38"/>
+    <mergeCell ref="B22:C103"/>
+    <mergeCell ref="D31:E39"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D22:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="D48:E51"/>
-    <mergeCell ref="D83:E85"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="D120:E122"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="D108:E110"/>
+    <mergeCell ref="D105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="D116:E118"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="D112:E114"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="F199:I199"/>
+    <mergeCell ref="D187:E194"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="D196:E199"/>
+    <mergeCell ref="D201:E204"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="F147:I147"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="D178:E185"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="D140:E142"/>
+    <mergeCell ref="F184:I184"/>
+    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="B105:C134"/>
+    <mergeCell ref="D127:E128"/>
+    <mergeCell ref="D65:E71"/>
+    <mergeCell ref="D130:E132"/>
+    <mergeCell ref="D124:E125"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="D171:E174"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="F167:I167"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F168:I168"/>
     <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F89:I89"/>
     <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="D59:E62"/>
-    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="F163:I163"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="F222:I224"/>
+    <mergeCell ref="B222:C224"/>
+    <mergeCell ref="D152:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="F208:I208"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="F215:I215"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="D215:E217"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="D157:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="D206:E213"/>
+    <mergeCell ref="F206:I206"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="L222:M222"/>
+    <mergeCell ref="L223:M223"/>
+    <mergeCell ref="L224:M224"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="D219:E220"/>
+    <mergeCell ref="B137:C220"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="F192:I192"/>
+    <mergeCell ref="F194:I194"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="F198:I198"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="F211:I211"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="D149:E150"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D222:E224"/>
+    <mergeCell ref="D167:E169"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D94:E99"/>
+    <mergeCell ref="D84:E87"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="D137:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="D162:E163"/>
+    <mergeCell ref="D165:E165"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K147 K130 K152 K155 K157" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K151 K133 K156 K159 K161 K164 K166" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
       <formula1>$R$3:$R$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J22:J29 J31:J38 J213:J215 J53:J54 J56:J57 J59:J62 J64:J70 J72:J74 J197:J204 J102:J103 J105:J107 J109:J111 J113:J115 J121:J122 J124:J125 J127:J131 J117:J119 J178:J185 J187:J190 J192:J195 J164:J167 H217 J206:J211 J98:J100 J76:J81 J40 J45:J46 J142:J143 J145:J162 J87:J88 J90 J42:J43 J92:J96 J48:J51 J134:J140 J170:J176 J83:J85" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J22:J29 J31:J39 J222:J224 J54:J55 J57:J58 J60:J63 J65:J71 J73:J75 J206:J213 J105:J106 J108:J110 J112:J114 J116:J118 J124:J125 J127:J128 J130:J134 J120:J122 J187:J194 J196:J199 J201:J204 J171:J174 H226 J215:J220 J101:J103 J77:J82 J41 J46:J47 J146:J147 J89:J90 J92 J43:J44 J94:J99 J49:J52 J137:J144 J178:J185 J84:J87 J176 J149:J169" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
       <formula1>$G$5:$G$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K121:K122 K22:K29 K31:K38 K213:K215 K53:K54 K192:K195 K59:K62 K72:K74 K76:K81 K187:K190 K102:K103 K105:K107 K109:K111 K113:K115 K117:K119 K64:K70 K124:K125 K127:K129 K56:K57 K158:K162 K98:K100 K178:K185 K96 I217 K148:K151 K197:K204 K206:K211 K40 K45:K46 K142:K143 K145:K146 K87:K88 K90 K42:K43 K153:K154 K48:K51 K156 K164:K167 K134:K140 K170:K173 K83:K85" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K124:K125 K22:K29 K31:K39 K222:K224 K54:K55 K201:K204 K60:K63 K73:K75 K77:K82 K196:K199 K105:K106 K108:K110 K112:K114 K116:K118 K120:K122 K65:K71 K127:K128 K130:K132 K57:K58 K101:K103 K187:K194 K98:K99 I226 K152:K155 K206:K213 K215:K220 K41 K46:K47 K146:K147 K149:K150 K89:K90 K92 K43:K44 K157:K158 K49:K52 K160 K171:K174 K137:K144 K178:K181 K84:K87 K183 K176 K167:K169 K162:K163 K165" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
       <formula1>$D$5:$D$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -7279,18 +7511,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7313,14 +7545,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145F01E7-EF9C-4603-AA2B-FF4DC3E55AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7cd07669-f7e4-4811-9af0-01eecff77126"/>
@@ -7335,4 +7559,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/卒業制作 (3).xlsx
+++ b/卒業制作 (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE3A13\卒業制作\Labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4879A48-88C0-4C8D-ADBA-698EE12D8AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE75E7-DEC6-49E0-93A0-82F9ED79BA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7512" xr2:uid="{243CCB41-0353-4C68-8296-4CB6A554B702}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="227">
   <si>
     <t>警察24時</t>
     <rPh sb="0" eb="2">
@@ -499,16 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>信号の制御</t>
-    <rPh sb="0" eb="2">
-      <t>シンゴウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>信号の色の切り替えの処理</t>
     <rPh sb="0" eb="2">
       <t>シンゴウ</t>
@@ -1519,13 +1509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レーザーポインタの作成</t>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アニメーションとプログラムの結合</t>
     <rPh sb="14" eb="16">
       <t>ケツゴウ</t>
@@ -1636,19 +1619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>信号機をプログラムで登場させる処理</t>
-    <rPh sb="0" eb="3">
-      <t>シンゴウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バグの修正</t>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
@@ -1867,6 +1837,81 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照準器の作成</t>
+    <rPh sb="0" eb="3">
+      <t>ショウジュンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β版</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号の色の切り替えの秒数設定</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ビョウスウセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号機の設置</t>
+    <rPh sb="0" eb="3">
+      <t>シンゴウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版個人個人の時間</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β版個人個人の時間</t>
+    <rPh sb="0" eb="2">
+      <t>ベータバン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>コジンコジン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1981,7 +2026,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2263,6 +2308,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2272,7 +2332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2402,70 +2462,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,25 +2549,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,6 +2621,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2543,107 +2672,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2962,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E4AAE-54DD-4F16-91FF-456D394778FB}">
   <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2983,18 +3049,18 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="44"/>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="47"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="48"/>
       <c r="K3" s="1" t="s">
         <v>2</v>
@@ -3009,16 +3075,16 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="72" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="81" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3038,17 +3104,17 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="115"/>
-      <c r="C6" s="106"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="19"/>
-      <c r="F6" s="115"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="1"/>
       <c r="N6" s="1">
         <f>SUM(O25:$O$28)</f>
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="O6" s="33"/>
       <c r="P6">
@@ -3062,10 +3128,10 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="115"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="116"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3074,8 +3140,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="115"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="75" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3086,8 +3152,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="115"/>
-      <c r="C9" s="109"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
@@ -3099,8 +3165,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="115"/>
-      <c r="C10" s="109"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3112,8 +3178,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="115"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
@@ -3122,8 +3188,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="115"/>
-      <c r="C12" s="111" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="78" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -3134,8 +3200,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="115"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
@@ -3144,8 +3210,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="116"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
@@ -3171,19 +3237,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="90" t="s">
+    <row r="17" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="85"/>
+      <c r="D17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
@@ -3194,17 +3260,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="73" t="s">
+    <row r="18" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="16"/>
@@ -3228,19 +3294,19 @@
       <c r="K19" s="22"/>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="117" t="s">
+    <row r="20" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="72" t="s">
+      <c r="C20" s="89"/>
+      <c r="D20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
@@ -3255,25 +3321,25 @@
         <v>124.66666666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
     </row>
-    <row r="22" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="44"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="5" t="s">
         <v>7</v>
       </c>
@@ -3284,17 +3350,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="71"/>
+    <row r="23" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
       <c r="J23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3305,17 +3371,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="71"/>
+    <row r="24" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="5" t="s">
         <v>7</v>
       </c>
@@ -3326,20 +3392,20 @@
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="71"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="F25" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
@@ -3350,24 +3416,24 @@
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O25">
         <f>SUMIF($K$22:$K$233,$D$12,$L$22:$L$233)</f>
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="71"/>
+    <row r="26" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
@@ -3378,24 +3444,24 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O26">
         <f>SUMIF($K$22:$K$224,$D$13,$L$22:$L$224)</f>
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="71"/>
+    <row r="27" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3406,24 +3472,24 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O27">
         <f>SUMIF($K$22:$K$233,$D$14,$L$22:$L$233)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="71"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
+      <c r="F28" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="29" t="s">
         <v>11</v>
       </c>
@@ -3434,24 +3500,24 @@
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O28">
         <f>SUMIF($K$22:$K$220,"プログラマー全員",$L$22:$L$220)</f>
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="61"/>
+    <row r="29" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="48"/>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="16" t="s">
         <v>11</v>
       </c>
@@ -3462,24 +3528,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
+    <row r="30" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="59" t="s">
+    <row r="31" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="44"/>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="5" t="s">
         <v>7</v>
       </c>
@@ -3490,17 +3556,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="71"/>
+    <row r="32" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="5" t="s">
         <v>7</v>
       </c>
@@ -3510,18 +3576,26 @@
       <c r="L32" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="71"/>
+      <c r="N32" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" s="124"/>
+      <c r="Q32" s="124" t="s">
+        <v>226</v>
+      </c>
+      <c r="R32" s="124"/>
+    </row>
+    <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="46"/>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="5" t="s">
         <v>7</v>
       </c>
@@ -3531,18 +3605,32 @@
       <c r="L33" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="71"/>
+      <c r="N33" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" s="125">
+        <f>SUMIF($K$22:$K$103,$D$12,$L$22:$L$103)</f>
+        <v>76</v>
+      </c>
+      <c r="Q33" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="R33" s="125">
+        <f>SUMIF($K$137:$K$224,$D$12,$L$137:$L$224)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="46"/>
-      <c r="F34" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
+      <c r="F34" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="5" t="s">
         <v>7</v>
       </c>
@@ -3552,18 +3640,32 @@
       <c r="L34" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="71"/>
+      <c r="N34" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="O34" s="125">
+        <f>SUMIF($K$22:$K$103,$D$13,$L$22:$L$103)</f>
+        <v>80</v>
+      </c>
+      <c r="Q34" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="R34" s="125">
+        <f>SUMIF($K$137:$K$224,$D$13,$L$137:$L$224)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
       <c r="J35" s="5" t="s">
         <v>7</v>
       </c>
@@ -3573,18 +3675,32 @@
       <c r="L35" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="71"/>
+      <c r="N35" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" s="125">
+        <f>SUMIF($K$22:$K$103,$D$14,$L$22:$L$103)</f>
+        <v>54</v>
+      </c>
+      <c r="Q35" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="R35" s="125">
+        <f>SUMIF($K$137:$K$224,$D$14,$L$137:$L$224)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
       <c r="J36" s="5" t="s">
         <v>11</v>
       </c>
@@ -3594,18 +3710,32 @@
       <c r="L36" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="71"/>
+      <c r="N36" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="O36" s="125">
+        <f>SUMIF($K$22:$K$103,"プログラマー全員",$L$22:$L$103)</f>
+        <v>66</v>
+      </c>
+      <c r="Q36" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="R36" s="125">
+        <f>SUMIF($K$137:$K$224,"プログラマー全員",$L$137:$L$224)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
+      <c r="F37" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
@@ -3616,17 +3746,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="71"/>
+    <row r="38" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
+      <c r="F38" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="5" t="s">
         <v>7</v>
       </c>
@@ -3634,20 +3764,20 @@
         <v>23</v>
       </c>
       <c r="L38" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="61"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="5" t="s">
         <v>11</v>
       </c>
@@ -3659,27 +3789,27 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
+    <row r="40" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
       <c r="E40" s="7"/>
       <c r="J40" s="6"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="73" t="s">
+    <row r="41" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B41" s="92"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="57"/>
+      <c r="F41" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="5" t="s">
         <v>12</v>
       </c>
@@ -3690,24 +3820,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
+    <row r="42" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B42" s="92"/>
+      <c r="C42" s="93"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="59" t="s">
-        <v>169</v>
+    <row r="43" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="92"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="E43" s="44"/>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="74"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3718,17 +3848,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="61"/>
+    <row r="44" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="48"/>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="5" t="s">
         <v>11</v>
       </c>
@@ -3739,9 +3869,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
+    <row r="45" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
@@ -3751,19 +3881,19 @@
       <c r="J45" s="1"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="43" t="s">
-        <v>170</v>
+    <row r="46" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="60" t="s">
+        <v>169</v>
       </c>
       <c r="E46" s="44"/>
-      <c r="F46" s="72" t="s">
+      <c r="F46" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
       <c r="J46" s="5" t="s">
         <v>11</v>
       </c>
@@ -3774,17 +3904,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="47"/>
+    <row r="47" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="92"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="48"/>
-      <c r="F47" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
+      <c r="F47" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
       <c r="J47" s="5" t="s">
         <v>7</v>
       </c>
@@ -3795,25 +3925,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
+    <row r="48" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="92"/>
+      <c r="C48" s="93"/>
       <c r="F48" s="20"/>
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="59" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="44"/>
-      <c r="F49" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="50"/>
+      <c r="F49" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
       <c r="J49" s="5" t="s">
         <v>7</v>
       </c>
@@ -3825,16 +3955,16 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="71"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="46"/>
-      <c r="F50" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="50"/>
+      <c r="F50" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="5" t="s">
         <v>7</v>
       </c>
@@ -3846,16 +3976,16 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="71"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="46"/>
-      <c r="F51" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50"/>
+      <c r="F51" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
       <c r="J51" s="5" t="s">
         <v>7</v>
       </c>
@@ -3867,16 +3997,16 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="48"/>
-      <c r="F52" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50"/>
+      <c r="F52" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
       <c r="J52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3888,24 +4018,24 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
       <c r="E53" s="3"/>
       <c r="L53" s="16"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="59" t="s">
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="44"/>
+      <c r="F54" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="50"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
       <c r="J54" s="5" t="s">
         <v>11</v>
       </c>
@@ -3917,16 +4047,16 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="61"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="48"/>
-      <c r="F55" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120"/>
+      <c r="F55" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="5" t="s">
         <v>11</v>
       </c>
@@ -3938,8 +4068,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="93"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="16"/>
@@ -3948,18 +4078,18 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="59" t="s">
+      <c r="B57" s="92"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="44"/>
+      <c r="F57" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="50"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="55"/>
       <c r="J57" s="5" t="s">
         <v>12</v>
       </c>
@@ -3971,16 +4101,16 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="61"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="48"/>
-      <c r="F58" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="50"/>
+      <c r="F58" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
       <c r="J58" s="5" t="s">
         <v>12</v>
       </c>
@@ -3992,8 +4122,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4004,18 +4134,18 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="59" t="s">
+      <c r="B60" s="92"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="44"/>
+      <c r="F60" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="74"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="67"/>
       <c r="J60" s="5" t="s">
         <v>7</v>
       </c>
@@ -4027,16 +4157,16 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="71"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="46"/>
-      <c r="F61" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="74"/>
+      <c r="F61" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="67"/>
       <c r="J61" s="5" t="s">
         <v>7</v>
       </c>
@@ -4048,16 +4178,16 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="77"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="71"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="46"/>
-      <c r="F62" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
+      <c r="F62" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="67"/>
       <c r="J62" s="5" t="s">
         <v>12</v>
       </c>
@@ -4069,16 +4199,16 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="77"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="61"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="48"/>
-      <c r="F63" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="74"/>
+      <c r="F63" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="67"/>
       <c r="J63" s="5" t="s">
         <v>7</v>
       </c>
@@ -4090,30 +4220,30 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="1"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="3"/>
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="59" t="s">
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="44"/>
+      <c r="F65" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="67"/>
       <c r="J65" s="5" t="s">
         <v>12</v>
       </c>
@@ -4125,16 +4255,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="77"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="71"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="46"/>
-      <c r="F66" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
+      <c r="F66" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="67"/>
       <c r="J66" s="5" t="s">
         <v>12</v>
       </c>
@@ -4146,16 +4276,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="71"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="46"/>
-      <c r="F67" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="74"/>
+      <c r="F67" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="67"/>
       <c r="J67" s="5" t="s">
         <v>12</v>
       </c>
@@ -4167,16 +4297,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="71"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="46"/>
-      <c r="F68" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="74"/>
+      <c r="F68" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="67"/>
       <c r="J68" s="5" t="s">
         <v>12</v>
       </c>
@@ -4188,16 +4318,16 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="77"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="71"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="45"/>
       <c r="E69" s="46"/>
-      <c r="F69" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="74"/>
+      <c r="F69" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="5" t="s">
         <v>12</v>
       </c>
@@ -4209,16 +4339,16 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="77"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="71"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="46"/>
-      <c r="F70" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="74"/>
+      <c r="F70" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="5" t="s">
         <v>12</v>
       </c>
@@ -4230,16 +4360,16 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="61"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="48"/>
-      <c r="F71" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="74"/>
+      <c r="F71" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="67"/>
       <c r="J71" s="5" t="s">
         <v>12</v>
       </c>
@@ -4251,31 +4381,31 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="77"/>
-      <c r="C72" s="78"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="3"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="43" t="s">
+      <c r="B73" s="92"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
       <c r="J73" s="5" t="s">
         <v>11</v>
       </c>
@@ -4287,16 +4417,16 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="45"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="46"/>
-      <c r="F74" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="74"/>
+      <c r="F74" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="5" t="s">
         <v>11</v>
       </c>
@@ -4308,16 +4438,16 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="45"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="46"/>
-      <c r="F75" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
+      <c r="F75" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
       <c r="J75" s="5" t="s">
         <v>11</v>
       </c>
@@ -4329,29 +4459,29 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="77"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="45"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="46"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
       <c r="J76" s="3"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="77"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="45"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="46"/>
-      <c r="F77" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
+      <c r="F77" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
       <c r="J77" s="5" t="s">
         <v>11</v>
       </c>
@@ -4363,16 +4493,16 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="77"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="45"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="46"/>
-      <c r="F78" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="50"/>
+      <c r="F78" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="5" t="s">
         <v>11</v>
       </c>
@@ -4384,16 +4514,16 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="77"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="45"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="46"/>
-      <c r="F79" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
+      <c r="F79" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
       <c r="J79" s="5" t="s">
         <v>11</v>
       </c>
@@ -4405,16 +4535,16 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="77"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="45"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="46"/>
-      <c r="F80" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="50"/>
+      <c r="F80" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="5" t="s">
         <v>11</v>
       </c>
@@ -4426,16 +4556,16 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="77"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="45"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="61"/>
       <c r="E81" s="46"/>
-      <c r="F81" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
+      <c r="F81" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
       <c r="J81" s="5" t="s">
         <v>11</v>
       </c>
@@ -4447,16 +4577,16 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="77"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="47"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="48"/>
-      <c r="F82" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="50"/>
+      <c r="F82" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="5" t="s">
         <v>11</v>
       </c>
@@ -4468,8 +4598,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="77"/>
-      <c r="C83" s="78"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="93"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4480,18 +4610,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="77"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="59" t="s">
+      <c r="B84" s="92"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="44"/>
+      <c r="F84" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="G84" s="122"/>
-      <c r="H84" s="122"/>
-      <c r="I84" s="123"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="65"/>
       <c r="J84" s="5" t="s">
         <v>7</v>
       </c>
@@ -4503,16 +4633,16 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="77"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="60"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="121"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="50"/>
+      <c r="F85" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="55"/>
       <c r="J85" s="5" t="s">
         <v>7</v>
       </c>
@@ -4524,16 +4654,16 @@
       </c>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="77"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="60"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="121"/>
       <c r="E86" s="46"/>
-      <c r="F86" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="50"/>
+      <c r="F86" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55"/>
       <c r="J86" s="5" t="s">
         <v>7</v>
       </c>
@@ -4545,16 +4675,16 @@
       </c>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="77"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="61"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="48"/>
-      <c r="F87" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="123"/>
+      <c r="F87" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="65"/>
       <c r="J87" s="5" t="s">
         <v>7</v>
       </c>
@@ -4566,8 +4696,8 @@
       </c>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="77"/>
-      <c r="C88" s="78"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="93"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
@@ -4578,18 +4708,18 @@
       <c r="L88"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="77"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="43" t="s">
-        <v>173</v>
+      <c r="B89" s="92"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="60" t="s">
+        <v>172</v>
       </c>
       <c r="E89" s="44"/>
-      <c r="F89" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="50"/>
+      <c r="F89" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="55"/>
       <c r="J89" s="5" t="s">
         <v>7</v>
       </c>
@@ -4601,16 +4731,16 @@
       </c>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="77"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="47"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="48"/>
-      <c r="F90" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="50"/>
+      <c r="F90" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="55"/>
       <c r="J90" s="5" t="s">
         <v>7</v>
       </c>
@@ -4622,8 +4752,8 @@
       </c>
     </row>
     <row r="91" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B91" s="77"/>
-      <c r="C91" s="78"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="37"/>
@@ -4632,18 +4762,18 @@
       <c r="I91" s="37"/>
     </row>
     <row r="92" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="77"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E92" s="63"/>
-      <c r="F92" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="70"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="122" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="123"/>
+      <c r="F92" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="52"/>
       <c r="J92" s="5" t="s">
         <v>7</v>
       </c>
@@ -4655,8 +4785,8 @@
       </c>
     </row>
     <row r="93" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="77"/>
-      <c r="C93" s="78"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="93"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="37"/>
@@ -4665,102 +4795,102 @@
       <c r="I93" s="37"/>
     </row>
     <row r="94" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="77"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="53" t="s">
+      <c r="B94" s="92"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" s="116"/>
+      <c r="F94" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E94" s="54"/>
-      <c r="F94" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
-      <c r="I94" s="70"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="52"/>
       <c r="J94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K94" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L94" s="38">
         <v>20</v>
       </c>
     </row>
     <row r="95" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="77"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69"/>
-      <c r="I95" s="70"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="118"/>
+      <c r="F95" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="52"/>
       <c r="J95" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K95" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L95" s="38">
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="77"/>
-      <c r="C96" s="78"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="70"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="117"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="52"/>
       <c r="J96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K96" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L96" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="77"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="70"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="52"/>
       <c r="J97" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K97" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L97" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="77"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="70"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="52"/>
       <c r="J98" s="5" t="s">
         <v>7</v>
       </c>
@@ -4772,16 +4902,16 @@
       </c>
     </row>
     <row r="99" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B99" s="77"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="70"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="52"/>
       <c r="J99" s="5" t="s">
         <v>7</v>
       </c>
@@ -4793,8 +4923,8 @@
       </c>
     </row>
     <row r="100" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="77"/>
-      <c r="C100" s="78"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="93"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="37"/>
@@ -4803,18 +4933,18 @@
       <c r="I100" s="37"/>
     </row>
     <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B101" s="77"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="51" t="s">
+      <c r="B101" s="92"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E101" s="57"/>
+      <c r="F101" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="52"/>
-      <c r="F101" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" s="73"/>
-      <c r="H101" s="73"/>
-      <c r="I101" s="74"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="67"/>
       <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
@@ -4824,8 +4954,8 @@
       <c r="L101" s="17"/>
     </row>
     <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B102" s="77"/>
-      <c r="C102" s="78"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="93"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="26"/>
@@ -4836,18 +4966,18 @@
       <c r="K102" s="25"/>
     </row>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="79"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="96" t="s">
+      <c r="B103" s="94"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="57"/>
+      <c r="F103" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="52"/>
-      <c r="F103" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="74"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="67"/>
       <c r="J103" s="4" t="s">
         <v>7</v>
       </c>
@@ -4860,20 +4990,20 @@
     </row>
     <row r="104" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="105" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B105" s="75" t="s">
+      <c r="B105" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="91"/>
+      <c r="D105" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="44"/>
+      <c r="F105" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="76"/>
-      <c r="D105" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="44"/>
-      <c r="F105" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="67"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="71"/>
       <c r="J105" s="5" t="s">
         <v>7</v>
       </c>
@@ -4885,16 +5015,16 @@
       </c>
     </row>
     <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="77"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="61"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="48"/>
-      <c r="F106" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="67"/>
+      <c r="F106" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" s="70"/>
+      <c r="H106" s="70"/>
+      <c r="I106" s="71"/>
       <c r="J106" s="5" t="s">
         <v>7</v>
       </c>
@@ -4904,22 +5034,22 @@
       </c>
     </row>
     <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B107" s="77"/>
-      <c r="C107" s="78"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="93"/>
     </row>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="77"/>
-      <c r="C108" s="78"/>
-      <c r="D108" s="59" t="s">
-        <v>89</v>
+      <c r="B108" s="92"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="E108" s="44"/>
-      <c r="F108" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="67"/>
+      <c r="F108" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="70"/>
+      <c r="H108" s="70"/>
+      <c r="I108" s="71"/>
       <c r="J108" s="5" t="s">
         <v>7</v>
       </c>
@@ -4931,16 +5061,16 @@
       </c>
     </row>
     <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B109" s="77"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="71"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="93"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="46"/>
-      <c r="F109" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="67"/>
+      <c r="F109" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="71"/>
       <c r="J109" s="5" t="s">
         <v>7</v>
       </c>
@@ -4950,16 +5080,16 @@
       </c>
     </row>
     <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B110" s="77"/>
-      <c r="C110" s="78"/>
-      <c r="D110" s="61"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="47"/>
       <c r="E110" s="48"/>
-      <c r="F110" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="67"/>
+      <c r="F110" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="71"/>
       <c r="J110" s="5" t="s">
         <v>12</v>
       </c>
@@ -4971,23 +5101,23 @@
       </c>
     </row>
     <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="77"/>
-      <c r="C111" s="78"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="93"/>
       <c r="L111" s="16"/>
     </row>
     <row r="112" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B112" s="77"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="59" t="s">
-        <v>92</v>
+      <c r="B112" s="92"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="E112" s="44"/>
-      <c r="F112" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="67"/>
+      <c r="F112" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="71"/>
       <c r="J112" s="5" t="s">
         <v>11</v>
       </c>
@@ -4999,16 +5129,16 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="77"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="71"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="46"/>
-      <c r="F113" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="67"/>
+      <c r="F113" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="71"/>
       <c r="J113" s="5" t="s">
         <v>11</v>
       </c>
@@ -5018,16 +5148,16 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B114" s="77"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="61"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="47"/>
       <c r="E114" s="48"/>
-      <c r="F114" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="67"/>
+      <c r="F114" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="70"/>
+      <c r="H114" s="70"/>
+      <c r="I114" s="71"/>
       <c r="J114" s="5" t="s">
         <v>12</v>
       </c>
@@ -5039,23 +5169,23 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B115" s="77"/>
-      <c r="C115" s="78"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="93"/>
       <c r="L115" s="16"/>
     </row>
     <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B116" s="77"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="59" t="s">
-        <v>94</v>
+      <c r="B116" s="92"/>
+      <c r="C116" s="93"/>
+      <c r="D116" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="E116" s="44"/>
-      <c r="F116" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="67"/>
+      <c r="F116" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="71"/>
       <c r="J116" s="5" t="s">
         <v>11</v>
       </c>
@@ -5068,16 +5198,16 @@
     </row>
     <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="71"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="46"/>
-      <c r="F117" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="67"/>
+      <c r="F117" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" s="70"/>
+      <c r="H117" s="70"/>
+      <c r="I117" s="71"/>
       <c r="J117" s="5" t="s">
         <v>11</v>
       </c>
@@ -5087,16 +5217,16 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="77"/>
-      <c r="C118" s="78"/>
-      <c r="D118" s="61"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="93"/>
+      <c r="D118" s="47"/>
       <c r="E118" s="48"/>
-      <c r="F118" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="67"/>
+      <c r="F118" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="71"/>
       <c r="J118" s="5" t="s">
         <v>12</v>
       </c>
@@ -5108,23 +5238,23 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="77"/>
-      <c r="C119" s="78"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="93"/>
       <c r="L119" s="16"/>
     </row>
     <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B120" s="77"/>
-      <c r="C120" s="78"/>
-      <c r="D120" s="59" t="s">
-        <v>96</v>
+      <c r="B120" s="92"/>
+      <c r="C120" s="93"/>
+      <c r="D120" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="E120" s="44"/>
-      <c r="F120" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
+      <c r="F120" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120" s="70"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
       <c r="J120" s="5" t="s">
         <v>11</v>
       </c>
@@ -5136,16 +5266,16 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B121" s="77"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="71"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="46"/>
-      <c r="F121" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
+      <c r="F121" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
       <c r="J121" s="5" t="s">
         <v>11</v>
       </c>
@@ -5155,16 +5285,16 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="77"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="61"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="47"/>
       <c r="E122" s="48"/>
-      <c r="F122" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
+      <c r="F122" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="G122" s="70"/>
+      <c r="H122" s="70"/>
+      <c r="I122" s="70"/>
       <c r="J122" s="5" t="s">
         <v>12</v>
       </c>
@@ -5176,22 +5306,22 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B123" s="77"/>
-      <c r="C123" s="78"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="93"/>
     </row>
     <row r="124" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B124" s="77"/>
-      <c r="C124" s="78"/>
-      <c r="D124" s="43" t="s">
+      <c r="B124" s="92"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="44"/>
+      <c r="F124" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E124" s="44"/>
-      <c r="F124" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="67"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="71"/>
       <c r="J124" s="5" t="s">
         <v>7</v>
       </c>
@@ -5203,16 +5333,16 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B125" s="77"/>
-      <c r="C125" s="78"/>
-      <c r="D125" s="47"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="62"/>
       <c r="E125" s="48"/>
-      <c r="F125" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="67"/>
+      <c r="F125" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" s="70"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="71"/>
       <c r="J125" s="5" t="s">
         <v>7</v>
       </c>
@@ -5224,8 +5354,8 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B126" s="77"/>
-      <c r="C126" s="78"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5234,18 +5364,18 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B127" s="77"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="59" t="s">
+      <c r="B127" s="92"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E127" s="44"/>
-      <c r="F127" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="67"/>
+      <c r="F127" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="71"/>
       <c r="J127" s="5" t="s">
         <v>12</v>
       </c>
@@ -5257,16 +5387,16 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B128" s="77"/>
-      <c r="C128" s="78"/>
-      <c r="D128" s="61"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="47"/>
       <c r="E128" s="48"/>
-      <c r="F128" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="67"/>
+      <c r="F128" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G128" s="70"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="71"/>
       <c r="J128" s="5" t="s">
         <v>12</v>
       </c>
@@ -5278,8 +5408,8 @@
       </c>
     </row>
     <row r="129" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B129" s="77"/>
-      <c r="C129" s="78"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="93"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5288,18 +5418,18 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B130" s="77"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="59" t="s">
+      <c r="B130" s="92"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="44"/>
+      <c r="F130" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E130" s="44"/>
-      <c r="F130" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="67"/>
+      <c r="G130" s="70"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="71"/>
       <c r="J130" s="5" t="s">
         <v>7</v>
       </c>
@@ -5311,16 +5441,16 @@
       </c>
     </row>
     <row r="131" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B131" s="77"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="71"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="45"/>
       <c r="E131" s="46"/>
-      <c r="F131" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="67"/>
+      <c r="F131" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="71"/>
       <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
@@ -5332,16 +5462,16 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B132" s="77"/>
-      <c r="C132" s="78"/>
-      <c r="D132" s="61"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="48"/>
-      <c r="F132" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="67"/>
+      <c r="F132" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G132" s="70"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="71"/>
       <c r="J132" s="5" t="s">
         <v>11</v>
       </c>
@@ -5353,8 +5483,8 @@
       </c>
     </row>
     <row r="133" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B133" s="77"/>
-      <c r="C133" s="78"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5364,23 +5494,23 @@
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B134" s="79"/>
-      <c r="C134" s="80"/>
-      <c r="D134" s="96" t="s">
+      <c r="B134" s="94"/>
+      <c r="C134" s="95"/>
+      <c r="D134" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" s="57"/>
+      <c r="F134" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="E134" s="52"/>
-      <c r="F134" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G134" s="104"/>
-      <c r="H134" s="104"/>
-      <c r="I134" s="104"/>
+      <c r="G134" s="103"/>
+      <c r="H134" s="103"/>
+      <c r="I134" s="103"/>
       <c r="J134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L134" s="17">
         <v>0</v>
@@ -5395,18 +5525,20 @@
       <c r="C136" s="10"/>
     </row>
     <row r="137" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B137" s="75"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="43" t="s">
+      <c r="B137" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="91"/>
+      <c r="D137" s="60" t="s">
         <v>33</v>
       </c>
       <c r="E137" s="44"/>
-      <c r="F137" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="50"/>
+      <c r="F137" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="55"/>
       <c r="J137" s="5" t="s">
         <v>12</v>
       </c>
@@ -5418,16 +5550,16 @@
       </c>
     </row>
     <row r="138" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B138" s="77"/>
-      <c r="C138" s="78"/>
-      <c r="D138" s="47"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="62"/>
       <c r="E138" s="48"/>
-      <c r="F138" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="50"/>
+      <c r="F138" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" s="54"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="55"/>
       <c r="J138" s="5" t="s">
         <v>11</v>
       </c>
@@ -5439,8 +5571,8 @@
       </c>
     </row>
     <row r="139" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B139" s="77"/>
-      <c r="C139" s="78"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="93"/>
       <c r="D139" s="40"/>
       <c r="E139" s="40"/>
       <c r="F139" s="41"/>
@@ -5452,18 +5584,18 @@
       <c r="L139" s="40"/>
     </row>
     <row r="140" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B140" s="77"/>
-      <c r="C140" s="78"/>
-      <c r="D140" s="43" t="s">
+      <c r="B140" s="92"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E140" s="44"/>
-      <c r="F140" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="G140" s="49"/>
-      <c r="H140" s="49"/>
-      <c r="I140" s="50"/>
+      <c r="F140" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="55"/>
       <c r="J140" s="5" t="s">
         <v>7</v>
       </c>
@@ -5475,16 +5607,16 @@
       </c>
     </row>
     <row r="141" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="77"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="45"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="61"/>
       <c r="E141" s="46"/>
-      <c r="F141" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
-      <c r="I141" s="50"/>
+      <c r="F141" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G141" s="54"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="55"/>
       <c r="J141" s="5" t="s">
         <v>11</v>
       </c>
@@ -5496,16 +5628,16 @@
       </c>
     </row>
     <row r="142" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B142" s="77"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="47"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="62"/>
       <c r="E142" s="48"/>
-      <c r="F142" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="50"/>
+      <c r="F142" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G142" s="54"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="55"/>
       <c r="J142" s="5" t="s">
         <v>11</v>
       </c>
@@ -5517,8 +5649,8 @@
       </c>
     </row>
     <row r="143" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B143" s="77"/>
-      <c r="C143" s="78"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="41"/>
@@ -5530,18 +5662,18 @@
       <c r="L143" s="40"/>
     </row>
     <row r="144" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B144" s="77"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E144" s="52"/>
-      <c r="F144" s="72" t="s">
+      <c r="B144" s="92"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E144" s="57"/>
+      <c r="F144" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G144" s="73"/>
-      <c r="H144" s="73"/>
-      <c r="I144" s="74"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
+      <c r="I144" s="67"/>
       <c r="J144" s="5" t="s">
         <v>11</v>
       </c>
@@ -5553,22 +5685,22 @@
       </c>
     </row>
     <row r="145" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B145" s="77"/>
-      <c r="C145" s="78"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="93"/>
     </row>
     <row r="146" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B146" s="77"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="43" t="s">
-        <v>171</v>
+      <c r="B146" s="92"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="E146" s="44"/>
-      <c r="F146" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G146" s="49"/>
-      <c r="H146" s="49"/>
-      <c r="I146" s="50"/>
+      <c r="F146" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="55"/>
       <c r="J146" s="5" t="s">
         <v>7</v>
       </c>
@@ -5580,16 +5712,16 @@
       </c>
     </row>
     <row r="147" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B147" s="77"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="47"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="62"/>
       <c r="E147" s="48"/>
-      <c r="F147" s="72" t="s">
+      <c r="F147" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G147" s="73"/>
-      <c r="H147" s="73"/>
-      <c r="I147" s="74"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="67"/>
       <c r="J147" s="5" t="s">
         <v>11</v>
       </c>
@@ -5601,22 +5733,22 @@
       </c>
     </row>
     <row r="148" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B148" s="77"/>
-      <c r="C148" s="78"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="93"/>
     </row>
     <row r="149" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B149" s="77"/>
-      <c r="C149" s="78"/>
-      <c r="D149" s="43" t="s">
-        <v>113</v>
+      <c r="B149" s="92"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="E149" s="44"/>
-      <c r="F149" s="72" t="s">
+      <c r="F149" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G149" s="73"/>
-      <c r="H149" s="73"/>
-      <c r="I149" s="74"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="67"/>
       <c r="J149" s="5" t="s">
         <v>11</v>
       </c>
@@ -5628,16 +5760,16 @@
       </c>
     </row>
     <row r="150" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B150" s="77"/>
-      <c r="C150" s="78"/>
-      <c r="D150" s="47"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="62"/>
       <c r="E150" s="48"/>
-      <c r="F150" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="G150" s="49"/>
-      <c r="H150" s="49"/>
-      <c r="I150" s="50"/>
+      <c r="F150" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G150" s="54"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="55"/>
       <c r="J150" s="5" t="s">
         <v>7</v>
       </c>
@@ -5649,8 +5781,8 @@
       </c>
     </row>
     <row r="151" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B151" s="77"/>
-      <c r="C151" s="78"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="93"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -5660,18 +5792,18 @@
       <c r="J151" s="1"/>
     </row>
     <row r="152" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B152" s="77"/>
-      <c r="C152" s="78"/>
-      <c r="D152" s="59" t="s">
-        <v>177</v>
+      <c r="B152" s="92"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="E152" s="44"/>
-      <c r="F152" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="G152" s="49"/>
-      <c r="H152" s="49"/>
-      <c r="I152" s="50"/>
+      <c r="F152" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G152" s="54"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="55"/>
       <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
@@ -5683,16 +5815,16 @@
       </c>
     </row>
     <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B153" s="77"/>
-      <c r="C153" s="78"/>
-      <c r="D153" s="71"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="45"/>
       <c r="E153" s="46"/>
-      <c r="F153" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="G153" s="73"/>
-      <c r="H153" s="73"/>
-      <c r="I153" s="74"/>
+      <c r="F153" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G153" s="49"/>
+      <c r="H153" s="49"/>
+      <c r="I153" s="67"/>
       <c r="J153" s="4" t="s">
         <v>11</v>
       </c>
@@ -5704,16 +5836,16 @@
       </c>
     </row>
     <row r="154" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B154" s="77"/>
-      <c r="C154" s="78"/>
-      <c r="D154" s="71"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="45"/>
       <c r="E154" s="46"/>
-      <c r="F154" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="G154" s="49"/>
-      <c r="H154" s="49"/>
-      <c r="I154" s="50"/>
+      <c r="F154" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G154" s="54"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="55"/>
       <c r="J154" s="4" t="s">
         <v>11</v>
       </c>
@@ -5725,16 +5857,16 @@
       </c>
     </row>
     <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B155" s="77"/>
-      <c r="C155" s="78"/>
-      <c r="D155" s="61"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="48"/>
-      <c r="F155" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G155" s="73"/>
-      <c r="H155" s="73"/>
-      <c r="I155" s="74"/>
+      <c r="F155" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="67"/>
       <c r="J155" s="4" t="s">
         <v>11</v>
       </c>
@@ -5746,8 +5878,8 @@
       </c>
     </row>
     <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B156" s="77"/>
-      <c r="C156" s="78"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="93"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -5757,18 +5889,18 @@
       <c r="J156" s="1"/>
     </row>
     <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B157" s="77"/>
-      <c r="C157" s="78"/>
-      <c r="D157" s="43" t="s">
+      <c r="B157" s="92"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" s="44"/>
+      <c r="F157" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E157" s="44"/>
-      <c r="F157" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" s="49"/>
-      <c r="H157" s="49"/>
-      <c r="I157" s="50"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="55"/>
       <c r="J157" s="5" t="s">
         <v>11</v>
       </c>
@@ -5780,16 +5912,16 @@
       </c>
     </row>
     <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B158" s="77"/>
-      <c r="C158" s="78"/>
-      <c r="D158" s="47"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="62"/>
       <c r="E158" s="48"/>
-      <c r="F158" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="G158" s="49"/>
-      <c r="H158" s="49"/>
-      <c r="I158" s="50"/>
+      <c r="F158" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="54"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="55"/>
       <c r="J158" s="5" t="s">
         <v>11</v>
       </c>
@@ -5801,8 +5933,8 @@
       </c>
     </row>
     <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B159" s="77"/>
-      <c r="C159" s="78"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="93"/>
       <c r="D159" s="27"/>
       <c r="E159" s="27"/>
       <c r="F159" s="27"/>
@@ -5814,18 +5946,18 @@
       <c r="L159" s="27"/>
     </row>
     <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B160" s="77"/>
-      <c r="C160" s="78"/>
-      <c r="D160" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="E160" s="96"/>
-      <c r="F160" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
-      <c r="I160" s="50"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="93"/>
+      <c r="D160" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E160" s="68"/>
+      <c r="F160" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="G160" s="54"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="55"/>
       <c r="J160" s="5" t="s">
         <v>12</v>
       </c>
@@ -5837,8 +5969,8 @@
       </c>
     </row>
     <row r="161" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B161" s="77"/>
-      <c r="C161" s="78"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="93"/>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
       <c r="F161" s="27"/>
@@ -5850,18 +5982,18 @@
       <c r="L161" s="27"/>
     </row>
     <row r="162" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B162" s="77"/>
-      <c r="C162" s="78"/>
-      <c r="D162" s="43" t="s">
-        <v>219</v>
+      <c r="B162" s="92"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="E162" s="44"/>
-      <c r="F162" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
-      <c r="I162" s="50"/>
+      <c r="F162" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G162" s="54"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="55"/>
       <c r="J162" s="5" t="s">
         <v>12</v>
       </c>
@@ -5873,16 +6005,16 @@
       </c>
     </row>
     <row r="163" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B163" s="77"/>
-      <c r="C163" s="78"/>
-      <c r="D163" s="47"/>
+      <c r="B163" s="92"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="62"/>
       <c r="E163" s="48"/>
-      <c r="F163" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="G163" s="49"/>
-      <c r="H163" s="49"/>
-      <c r="I163" s="50"/>
+      <c r="F163" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G163" s="54"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="55"/>
       <c r="J163" s="5" t="s">
         <v>12</v>
       </c>
@@ -5894,8 +6026,8 @@
       </c>
     </row>
     <row r="164" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B164" s="77"/>
-      <c r="C164" s="78"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="93"/>
       <c r="D164" s="42"/>
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
@@ -5907,18 +6039,18 @@
       <c r="L164" s="42"/>
     </row>
     <row r="165" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B165" s="77"/>
-      <c r="C165" s="78"/>
-      <c r="D165" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E165" s="52"/>
-      <c r="F165" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="G165" s="49"/>
-      <c r="H165" s="49"/>
-      <c r="I165" s="50"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E165" s="57"/>
+      <c r="F165" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="55"/>
       <c r="J165" s="5" t="s">
         <v>12</v>
       </c>
@@ -5930,8 +6062,8 @@
       </c>
     </row>
     <row r="166" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B166" s="77"/>
-      <c r="C166" s="78"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="93"/>
       <c r="D166" s="42"/>
       <c r="E166" s="42"/>
       <c r="F166" s="42"/>
@@ -5943,18 +6075,18 @@
       <c r="L166" s="42"/>
     </row>
     <row r="167" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B167" s="77"/>
-      <c r="C167" s="78"/>
-      <c r="D167" s="43" t="s">
-        <v>215</v>
+      <c r="B167" s="92"/>
+      <c r="C167" s="93"/>
+      <c r="D167" s="60" t="s">
+        <v>212</v>
       </c>
       <c r="E167" s="44"/>
-      <c r="F167" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G167" s="101"/>
-      <c r="H167" s="101"/>
-      <c r="I167" s="102"/>
+      <c r="F167" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="G167" s="100"/>
+      <c r="H167" s="100"/>
+      <c r="I167" s="101"/>
       <c r="J167" s="5" t="s">
         <v>12</v>
       </c>
@@ -5966,16 +6098,16 @@
       </c>
     </row>
     <row r="168" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B168" s="77"/>
-      <c r="C168" s="78"/>
-      <c r="D168" s="45"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="93"/>
+      <c r="D168" s="61"/>
       <c r="E168" s="46"/>
-      <c r="F168" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="G168" s="98"/>
-      <c r="H168" s="98"/>
-      <c r="I168" s="99"/>
+      <c r="F168" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G168" s="97"/>
+      <c r="H168" s="97"/>
+      <c r="I168" s="98"/>
       <c r="J168" s="5" t="s">
         <v>12</v>
       </c>
@@ -5987,16 +6119,16 @@
       </c>
     </row>
     <row r="169" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="77"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="47"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="93"/>
+      <c r="D169" s="62"/>
       <c r="E169" s="48"/>
-      <c r="F169" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="G169" s="98"/>
-      <c r="H169" s="98"/>
-      <c r="I169" s="99"/>
+      <c r="F169" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="98"/>
       <c r="J169" s="5" t="s">
         <v>12</v>
       </c>
@@ -6008,22 +6140,22 @@
       </c>
     </row>
     <row r="170" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B170" s="77"/>
-      <c r="C170" s="78"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="93"/>
     </row>
     <row r="171" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B171" s="77"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="59" t="s">
+      <c r="B171" s="92"/>
+      <c r="C171" s="93"/>
+      <c r="D171" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="44"/>
+      <c r="F171" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E171" s="44"/>
-      <c r="F171" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="G171" s="49"/>
-      <c r="H171" s="49"/>
-      <c r="I171" s="50"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="55"/>
       <c r="J171" s="5" t="s">
         <v>7</v>
       </c>
@@ -6035,16 +6167,16 @@
       </c>
     </row>
     <row r="172" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B172" s="77"/>
-      <c r="C172" s="78"/>
-      <c r="D172" s="71"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="93"/>
+      <c r="D172" s="45"/>
       <c r="E172" s="46"/>
-      <c r="F172" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G172" s="49"/>
-      <c r="H172" s="49"/>
-      <c r="I172" s="50"/>
+      <c r="F172" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="55"/>
       <c r="J172" s="5" t="s">
         <v>7</v>
       </c>
@@ -6056,16 +6188,16 @@
       </c>
     </row>
     <row r="173" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B173" s="77"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="71"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="45"/>
       <c r="E173" s="46"/>
-      <c r="F173" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
-      <c r="I173" s="50"/>
+      <c r="F173" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="55"/>
       <c r="J173" s="5" t="s">
         <v>7</v>
       </c>
@@ -6077,16 +6209,16 @@
       </c>
     </row>
     <row r="174" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B174" s="77"/>
-      <c r="C174" s="78"/>
-      <c r="D174" s="61"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="93"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="48"/>
-      <c r="F174" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49"/>
-      <c r="I174" s="50"/>
+      <c r="F174" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
+      <c r="I174" s="55"/>
       <c r="J174" s="5" t="s">
         <v>7</v>
       </c>
@@ -6098,26 +6230,26 @@
       </c>
     </row>
     <row r="175" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B175" s="77"/>
-      <c r="C175" s="78"/>
-      <c r="F175" s="71"/>
-      <c r="G175" s="71"/>
-      <c r="H175" s="71"/>
-      <c r="I175" s="71"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="93"/>
+      <c r="F175" s="45"/>
+      <c r="G175" s="45"/>
+      <c r="H175" s="45"/>
+      <c r="I175" s="45"/>
     </row>
     <row r="176" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B176" s="77"/>
-      <c r="C176" s="78"/>
-      <c r="D176" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="E176" s="52"/>
-      <c r="F176" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
-      <c r="I176" s="50"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E176" s="57"/>
+      <c r="F176" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
+      <c r="I176" s="55"/>
       <c r="J176" s="5" t="s">
         <v>7</v>
       </c>
@@ -6129,26 +6261,26 @@
       </c>
     </row>
     <row r="177" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B177" s="77"/>
-      <c r="C177" s="78"/>
-      <c r="F177" s="71"/>
-      <c r="G177" s="71"/>
-      <c r="H177" s="71"/>
-      <c r="I177" s="71"/>
+      <c r="B177" s="92"/>
+      <c r="C177" s="93"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
     </row>
     <row r="178" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B178" s="77"/>
-      <c r="C178" s="78"/>
-      <c r="D178" s="43" t="s">
-        <v>174</v>
+      <c r="B178" s="92"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="E178" s="44"/>
-      <c r="F178" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G178" s="49"/>
-      <c r="H178" s="49"/>
-      <c r="I178" s="50"/>
+      <c r="F178" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G178" s="54"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="55"/>
       <c r="J178" s="5" t="s">
         <v>12</v>
       </c>
@@ -6160,16 +6292,16 @@
       </c>
     </row>
     <row r="179" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B179" s="77"/>
-      <c r="C179" s="78"/>
-      <c r="D179" s="45"/>
+      <c r="B179" s="92"/>
+      <c r="C179" s="93"/>
+      <c r="D179" s="61"/>
       <c r="E179" s="46"/>
-      <c r="F179" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="G179" s="49"/>
-      <c r="H179" s="49"/>
-      <c r="I179" s="50"/>
+      <c r="F179" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="55"/>
       <c r="J179" s="5" t="s">
         <v>11</v>
       </c>
@@ -6181,16 +6313,16 @@
       </c>
     </row>
     <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B180" s="77"/>
-      <c r="C180" s="78"/>
-      <c r="D180" s="45"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="93"/>
+      <c r="D180" s="61"/>
       <c r="E180" s="46"/>
-      <c r="F180" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="G180" s="49"/>
-      <c r="H180" s="49"/>
-      <c r="I180" s="50"/>
+      <c r="F180" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="55"/>
       <c r="J180" s="5" t="s">
         <v>7</v>
       </c>
@@ -6202,16 +6334,16 @@
       </c>
     </row>
     <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B181" s="77"/>
-      <c r="C181" s="78"/>
-      <c r="D181" s="45"/>
+      <c r="B181" s="92"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="61"/>
       <c r="E181" s="46"/>
-      <c r="F181" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="G181" s="49"/>
-      <c r="H181" s="49"/>
-      <c r="I181" s="50"/>
+      <c r="F181" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G181" s="54"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="55"/>
       <c r="J181" s="5" t="s">
         <v>7</v>
       </c>
@@ -6223,37 +6355,37 @@
       </c>
     </row>
     <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B182" s="77"/>
-      <c r="C182" s="78"/>
-      <c r="D182" s="45"/>
+      <c r="B182" s="92"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="61"/>
       <c r="E182" s="46"/>
-      <c r="F182" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="G182" s="49"/>
-      <c r="H182" s="49"/>
-      <c r="I182" s="50"/>
+      <c r="F182" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G182" s="54"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="55"/>
       <c r="J182" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K182" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L182" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="183" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B183" s="77"/>
-      <c r="C183" s="78"/>
-      <c r="D183" s="45"/>
+      <c r="B183" s="92"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="61"/>
       <c r="E183" s="46"/>
-      <c r="F183" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="G183" s="49"/>
-      <c r="H183" s="49"/>
-      <c r="I183" s="50"/>
+      <c r="F183" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="G183" s="54"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="55"/>
       <c r="J183" s="5" t="s">
         <v>7</v>
       </c>
@@ -6265,50 +6397,50 @@
       </c>
     </row>
     <row r="184" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B184" s="77"/>
-      <c r="C184" s="78"/>
-      <c r="D184" s="45"/>
+      <c r="B184" s="92"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="61"/>
       <c r="E184" s="46"/>
-      <c r="F184" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="G184" s="69"/>
-      <c r="H184" s="69"/>
-      <c r="I184" s="70"/>
+      <c r="F184" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="G184" s="51"/>
+      <c r="H184" s="51"/>
+      <c r="I184" s="52"/>
       <c r="J184" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K184" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L184" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="185" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B185" s="77"/>
-      <c r="C185" s="78"/>
-      <c r="D185" s="47"/>
+      <c r="B185" s="92"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="62"/>
       <c r="E185" s="48"/>
-      <c r="F185" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="G185" s="49"/>
-      <c r="H185" s="49"/>
-      <c r="I185" s="50"/>
+      <c r="F185" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="55"/>
       <c r="J185" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K185" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L185" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B186" s="77"/>
-      <c r="C186" s="78"/>
+      <c r="B186" s="92"/>
+      <c r="C186" s="93"/>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
@@ -6317,18 +6449,18 @@
       <c r="L186" s="33"/>
     </row>
     <row r="187" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B187" s="77"/>
-      <c r="C187" s="78"/>
-      <c r="D187" s="59" t="s">
-        <v>66</v>
+      <c r="B187" s="92"/>
+      <c r="C187" s="93"/>
+      <c r="D187" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="E187" s="44"/>
-      <c r="F187" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G187" s="73"/>
-      <c r="H187" s="73"/>
-      <c r="I187" s="74"/>
+      <c r="F187" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="67"/>
       <c r="J187" s="5" t="s">
         <v>11</v>
       </c>
@@ -6340,16 +6472,16 @@
       </c>
     </row>
     <row r="188" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B188" s="77"/>
-      <c r="C188" s="78"/>
-      <c r="D188" s="71"/>
+      <c r="B188" s="92"/>
+      <c r="C188" s="93"/>
+      <c r="D188" s="45"/>
       <c r="E188" s="46"/>
-      <c r="F188" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="G188" s="73"/>
-      <c r="H188" s="73"/>
-      <c r="I188" s="74"/>
+      <c r="F188" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="67"/>
       <c r="J188" s="5" t="s">
         <v>11</v>
       </c>
@@ -6361,16 +6493,16 @@
       </c>
     </row>
     <row r="189" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B189" s="77"/>
-      <c r="C189" s="78"/>
-      <c r="D189" s="71"/>
+      <c r="B189" s="92"/>
+      <c r="C189" s="93"/>
+      <c r="D189" s="45"/>
       <c r="E189" s="46"/>
-      <c r="F189" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G189" s="73"/>
-      <c r="H189" s="73"/>
-      <c r="I189" s="74"/>
+      <c r="F189" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="67"/>
       <c r="J189" s="5" t="s">
         <v>11</v>
       </c>
@@ -6382,16 +6514,16 @@
       </c>
     </row>
     <row r="190" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B190" s="77"/>
-      <c r="C190" s="78"/>
-      <c r="D190" s="71"/>
+      <c r="B190" s="92"/>
+      <c r="C190" s="93"/>
+      <c r="D190" s="45"/>
       <c r="E190" s="46"/>
-      <c r="F190" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G190" s="73"/>
-      <c r="H190" s="73"/>
-      <c r="I190" s="74"/>
+      <c r="F190" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="G190" s="49"/>
+      <c r="H190" s="49"/>
+      <c r="I190" s="67"/>
       <c r="J190" s="5" t="s">
         <v>11</v>
       </c>
@@ -6403,16 +6535,16 @@
       </c>
     </row>
     <row r="191" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B191" s="77"/>
-      <c r="C191" s="78"/>
-      <c r="D191" s="71"/>
+      <c r="B191" s="92"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="45"/>
       <c r="E191" s="46"/>
-      <c r="F191" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="G191" s="73"/>
-      <c r="H191" s="73"/>
-      <c r="I191" s="74"/>
+      <c r="F191" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G191" s="49"/>
+      <c r="H191" s="49"/>
+      <c r="I191" s="67"/>
       <c r="J191" s="5" t="s">
         <v>11</v>
       </c>
@@ -6424,16 +6556,16 @@
       </c>
     </row>
     <row r="192" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B192" s="77"/>
-      <c r="C192" s="78"/>
-      <c r="D192" s="71"/>
+      <c r="B192" s="92"/>
+      <c r="C192" s="93"/>
+      <c r="D192" s="45"/>
       <c r="E192" s="46"/>
-      <c r="F192" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G192" s="73"/>
-      <c r="H192" s="73"/>
-      <c r="I192" s="74"/>
+      <c r="F192" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G192" s="49"/>
+      <c r="H192" s="49"/>
+      <c r="I192" s="67"/>
       <c r="J192" s="5" t="s">
         <v>11</v>
       </c>
@@ -6445,16 +6577,16 @@
       </c>
     </row>
     <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B193" s="77"/>
-      <c r="C193" s="78"/>
-      <c r="D193" s="71"/>
+      <c r="B193" s="92"/>
+      <c r="C193" s="93"/>
+      <c r="D193" s="45"/>
       <c r="E193" s="46"/>
-      <c r="F193" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G193" s="73"/>
-      <c r="H193" s="73"/>
-      <c r="I193" s="74"/>
+      <c r="F193" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
+      <c r="I193" s="67"/>
       <c r="J193" s="5" t="s">
         <v>11</v>
       </c>
@@ -6466,16 +6598,16 @@
       </c>
     </row>
     <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B194" s="77"/>
-      <c r="C194" s="78"/>
-      <c r="D194" s="61"/>
+      <c r="B194" s="92"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="48"/>
-      <c r="F194" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="G194" s="73"/>
-      <c r="H194" s="73"/>
-      <c r="I194" s="74"/>
+      <c r="F194" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G194" s="49"/>
+      <c r="H194" s="49"/>
+      <c r="I194" s="67"/>
       <c r="J194" s="5" t="s">
         <v>11</v>
       </c>
@@ -6487,22 +6619,22 @@
       </c>
     </row>
     <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B195" s="77"/>
-      <c r="C195" s="78"/>
+      <c r="B195" s="92"/>
+      <c r="C195" s="93"/>
     </row>
     <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B196" s="77"/>
-      <c r="C196" s="78"/>
-      <c r="D196" s="59" t="s">
+      <c r="B196" s="92"/>
+      <c r="C196" s="93"/>
+      <c r="D196" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E196" s="44"/>
+      <c r="F196" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E196" s="44"/>
-      <c r="F196" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="G196" s="73"/>
-      <c r="H196" s="73"/>
-      <c r="I196" s="74"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="49"/>
+      <c r="I196" s="67"/>
       <c r="J196" s="5" t="s">
         <v>11</v>
       </c>
@@ -6514,16 +6646,16 @@
       </c>
     </row>
     <row r="197" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B197" s="77"/>
-      <c r="C197" s="78"/>
-      <c r="D197" s="71"/>
+      <c r="B197" s="92"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="45"/>
       <c r="E197" s="46"/>
-      <c r="F197" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="G197" s="73"/>
-      <c r="H197" s="73"/>
-      <c r="I197" s="74"/>
+      <c r="F197" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G197" s="49"/>
+      <c r="H197" s="49"/>
+      <c r="I197" s="67"/>
       <c r="J197" s="5" t="s">
         <v>7</v>
       </c>
@@ -6535,16 +6667,16 @@
       </c>
     </row>
     <row r="198" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B198" s="77"/>
-      <c r="C198" s="78"/>
-      <c r="D198" s="71"/>
+      <c r="B198" s="92"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="45"/>
       <c r="E198" s="46"/>
-      <c r="F198" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="G198" s="73"/>
-      <c r="H198" s="73"/>
-      <c r="I198" s="74"/>
+      <c r="F198" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G198" s="49"/>
+      <c r="H198" s="49"/>
+      <c r="I198" s="67"/>
       <c r="J198" s="5" t="s">
         <v>7</v>
       </c>
@@ -6556,16 +6688,16 @@
       </c>
     </row>
     <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B199" s="77"/>
-      <c r="C199" s="78"/>
-      <c r="D199" s="61"/>
+      <c r="B199" s="92"/>
+      <c r="C199" s="93"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="48"/>
-      <c r="F199" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="G199" s="73"/>
-      <c r="H199" s="73"/>
-      <c r="I199" s="74"/>
+      <c r="F199" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G199" s="49"/>
+      <c r="H199" s="49"/>
+      <c r="I199" s="67"/>
       <c r="J199" s="5" t="s">
         <v>11</v>
       </c>
@@ -6577,22 +6709,22 @@
       </c>
     </row>
     <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B200" s="77"/>
-      <c r="C200" s="78"/>
+      <c r="B200" s="92"/>
+      <c r="C200" s="93"/>
     </row>
     <row r="201" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B201" s="77"/>
-      <c r="C201" s="78"/>
-      <c r="D201" s="59" t="s">
+      <c r="B201" s="92"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="44"/>
+      <c r="F201" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E201" s="44"/>
-      <c r="F201" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="G201" s="49"/>
-      <c r="H201" s="49"/>
-      <c r="I201" s="50"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="55"/>
       <c r="J201" s="5" t="s">
         <v>7</v>
       </c>
@@ -6604,16 +6736,16 @@
       </c>
     </row>
     <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B202" s="77"/>
-      <c r="C202" s="78"/>
-      <c r="D202" s="71"/>
+      <c r="B202" s="92"/>
+      <c r="C202" s="93"/>
+      <c r="D202" s="45"/>
       <c r="E202" s="46"/>
-      <c r="F202" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="G202" s="49"/>
-      <c r="H202" s="49"/>
-      <c r="I202" s="50"/>
+      <c r="F202" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="55"/>
       <c r="J202" s="5" t="s">
         <v>7</v>
       </c>
@@ -6625,16 +6757,16 @@
       </c>
     </row>
     <row r="203" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B203" s="77"/>
-      <c r="C203" s="78"/>
-      <c r="D203" s="71"/>
+      <c r="B203" s="92"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="45"/>
       <c r="E203" s="46"/>
-      <c r="F203" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G203" s="49"/>
-      <c r="H203" s="49"/>
-      <c r="I203" s="50"/>
+      <c r="F203" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="55"/>
       <c r="J203" s="5" t="s">
         <v>7</v>
       </c>
@@ -6646,16 +6778,16 @@
       </c>
     </row>
     <row r="204" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B204" s="77"/>
-      <c r="C204" s="78"/>
-      <c r="D204" s="61"/>
+      <c r="B204" s="92"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="47"/>
       <c r="E204" s="48"/>
-      <c r="F204" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="G204" s="49"/>
-      <c r="H204" s="49"/>
-      <c r="I204" s="50"/>
+      <c r="F204" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="55"/>
       <c r="J204" s="5" t="s">
         <v>11</v>
       </c>
@@ -6667,22 +6799,22 @@
       </c>
     </row>
     <row r="205" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B205" s="77"/>
-      <c r="C205" s="78"/>
+      <c r="B205" s="92"/>
+      <c r="C205" s="93"/>
     </row>
     <row r="206" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B206" s="77"/>
-      <c r="C206" s="78"/>
-      <c r="D206" s="59" t="s">
+      <c r="B206" s="92"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E206" s="44"/>
+      <c r="F206" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="E206" s="44"/>
-      <c r="F206" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="74"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="49"/>
+      <c r="I206" s="67"/>
       <c r="J206" s="5" t="s">
         <v>12</v>
       </c>
@@ -6694,16 +6826,16 @@
       </c>
     </row>
     <row r="207" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B207" s="77"/>
-      <c r="C207" s="78"/>
-      <c r="D207" s="71"/>
+      <c r="B207" s="92"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="45"/>
       <c r="E207" s="46"/>
-      <c r="F207" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="G207" s="73"/>
-      <c r="H207" s="73"/>
-      <c r="I207" s="74"/>
+      <c r="F207" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="G207" s="49"/>
+      <c r="H207" s="49"/>
+      <c r="I207" s="67"/>
       <c r="J207" s="5" t="s">
         <v>12</v>
       </c>
@@ -6715,16 +6847,16 @@
       </c>
     </row>
     <row r="208" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B208" s="77"/>
-      <c r="C208" s="78"/>
-      <c r="D208" s="71"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="45"/>
       <c r="E208" s="46"/>
-      <c r="F208" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G208" s="73"/>
-      <c r="H208" s="73"/>
-      <c r="I208" s="74"/>
+      <c r="F208" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G208" s="49"/>
+      <c r="H208" s="49"/>
+      <c r="I208" s="67"/>
       <c r="J208" s="5" t="s">
         <v>12</v>
       </c>
@@ -6736,16 +6868,16 @@
       </c>
     </row>
     <row r="209" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B209" s="77"/>
-      <c r="C209" s="78"/>
-      <c r="D209" s="71"/>
+      <c r="B209" s="92"/>
+      <c r="C209" s="93"/>
+      <c r="D209" s="45"/>
       <c r="E209" s="46"/>
-      <c r="F209" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="G209" s="73"/>
-      <c r="H209" s="73"/>
-      <c r="I209" s="74"/>
+      <c r="F209" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="G209" s="49"/>
+      <c r="H209" s="49"/>
+      <c r="I209" s="67"/>
       <c r="J209" s="5" t="s">
         <v>12</v>
       </c>
@@ -6757,16 +6889,16 @@
       </c>
     </row>
     <row r="210" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B210" s="77"/>
-      <c r="C210" s="78"/>
-      <c r="D210" s="71"/>
+      <c r="B210" s="92"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="45"/>
       <c r="E210" s="46"/>
-      <c r="F210" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="G210" s="73"/>
-      <c r="H210" s="73"/>
-      <c r="I210" s="74"/>
+      <c r="F210" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="G210" s="49"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="67"/>
       <c r="J210" s="5" t="s">
         <v>12</v>
       </c>
@@ -6778,16 +6910,16 @@
       </c>
     </row>
     <row r="211" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B211" s="77"/>
-      <c r="C211" s="78"/>
-      <c r="D211" s="71"/>
+      <c r="B211" s="92"/>
+      <c r="C211" s="93"/>
+      <c r="D211" s="45"/>
       <c r="E211" s="46"/>
-      <c r="F211" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="G211" s="73"/>
-      <c r="H211" s="73"/>
-      <c r="I211" s="74"/>
+      <c r="F211" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="G211" s="49"/>
+      <c r="H211" s="49"/>
+      <c r="I211" s="67"/>
       <c r="J211" s="5" t="s">
         <v>12</v>
       </c>
@@ -6799,16 +6931,16 @@
       </c>
     </row>
     <row r="212" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B212" s="77"/>
-      <c r="C212" s="78"/>
-      <c r="D212" s="71"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="45"/>
       <c r="E212" s="46"/>
-      <c r="F212" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="G212" s="73"/>
-      <c r="H212" s="73"/>
-      <c r="I212" s="74"/>
+      <c r="F212" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G212" s="49"/>
+      <c r="H212" s="49"/>
+      <c r="I212" s="67"/>
       <c r="J212" s="5" t="s">
         <v>12</v>
       </c>
@@ -6820,16 +6952,16 @@
       </c>
     </row>
     <row r="213" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B213" s="77"/>
-      <c r="C213" s="78"/>
-      <c r="D213" s="61"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="93"/>
+      <c r="D213" s="47"/>
       <c r="E213" s="48"/>
-      <c r="F213" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="G213" s="73"/>
-      <c r="H213" s="73"/>
-      <c r="I213" s="74"/>
+      <c r="F213" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="G213" s="49"/>
+      <c r="H213" s="49"/>
+      <c r="I213" s="67"/>
       <c r="J213" s="5" t="s">
         <v>12</v>
       </c>
@@ -6841,26 +6973,26 @@
       </c>
     </row>
     <row r="214" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B214" s="77"/>
-      <c r="C214" s="78"/>
-      <c r="F214" s="71"/>
-      <c r="G214" s="71"/>
-      <c r="H214" s="71"/>
-      <c r="I214" s="71"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="93"/>
+      <c r="F214" s="45"/>
+      <c r="G214" s="45"/>
+      <c r="H214" s="45"/>
+      <c r="I214" s="45"/>
     </row>
     <row r="215" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B215" s="77"/>
-      <c r="C215" s="78"/>
-      <c r="D215" s="59" t="s">
+      <c r="B215" s="92"/>
+      <c r="C215" s="93"/>
+      <c r="D215" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E215" s="44"/>
+      <c r="F215" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E215" s="44"/>
-      <c r="F215" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="G215" s="73"/>
-      <c r="H215" s="73"/>
-      <c r="I215" s="73"/>
+      <c r="G215" s="49"/>
+      <c r="H215" s="49"/>
+      <c r="I215" s="49"/>
       <c r="J215" s="5" t="s">
         <v>11</v>
       </c>
@@ -6872,16 +7004,16 @@
       </c>
     </row>
     <row r="216" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B216" s="77"/>
-      <c r="C216" s="78"/>
-      <c r="D216" s="71"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="93"/>
+      <c r="D216" s="45"/>
       <c r="E216" s="46"/>
-      <c r="F216" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G216" s="73"/>
-      <c r="H216" s="73"/>
-      <c r="I216" s="74"/>
+      <c r="F216" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G216" s="49"/>
+      <c r="H216" s="49"/>
+      <c r="I216" s="67"/>
       <c r="J216" s="5" t="s">
         <v>11</v>
       </c>
@@ -6893,16 +7025,16 @@
       </c>
     </row>
     <row r="217" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B217" s="77"/>
-      <c r="C217" s="78"/>
-      <c r="D217" s="61"/>
+      <c r="B217" s="92"/>
+      <c r="C217" s="93"/>
+      <c r="D217" s="47"/>
       <c r="E217" s="48"/>
-      <c r="F217" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G217" s="73"/>
-      <c r="H217" s="73"/>
-      <c r="I217" s="73"/>
+      <c r="F217" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G217" s="49"/>
+      <c r="H217" s="49"/>
+      <c r="I217" s="49"/>
       <c r="J217" s="5" t="s">
         <v>11</v>
       </c>
@@ -6914,8 +7046,8 @@
       </c>
     </row>
     <row r="218" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B218" s="77"/>
-      <c r="C218" s="78"/>
+      <c r="B218" s="92"/>
+      <c r="C218" s="93"/>
       <c r="D218" s="14"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -6927,18 +7059,18 @@
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B219" s="77"/>
-      <c r="C219" s="78"/>
-      <c r="D219" s="59" t="s">
-        <v>115</v>
+      <c r="B219" s="92"/>
+      <c r="C219" s="93"/>
+      <c r="D219" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="E219" s="44"/>
-      <c r="F219" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="G219" s="73"/>
-      <c r="H219" s="73"/>
-      <c r="I219" s="74"/>
+      <c r="F219" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G219" s="49"/>
+      <c r="H219" s="49"/>
+      <c r="I219" s="67"/>
       <c r="J219" s="4" t="s">
         <v>11</v>
       </c>
@@ -6950,16 +7082,16 @@
       </c>
     </row>
     <row r="220" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B220" s="79"/>
-      <c r="C220" s="80"/>
-      <c r="D220" s="61"/>
+      <c r="B220" s="94"/>
+      <c r="C220" s="95"/>
+      <c r="D220" s="47"/>
       <c r="E220" s="48"/>
-      <c r="F220" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="G220" s="73"/>
-      <c r="H220" s="73"/>
-      <c r="I220" s="74"/>
+      <c r="F220" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="67"/>
       <c r="J220" s="4" t="s">
         <v>11</v>
       </c>
@@ -6979,85 +7111,288 @@
       <c r="L221" s="2"/>
     </row>
     <row r="222" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B222" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="C222" s="91"/>
-      <c r="D222" s="43" t="s">
-        <v>159</v>
+      <c r="B222" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222" s="85"/>
+      <c r="D222" s="60" t="s">
+        <v>158</v>
       </c>
       <c r="E222" s="44"/>
-      <c r="F222" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="G222" s="82"/>
-      <c r="H222" s="82"/>
-      <c r="I222" s="83"/>
+      <c r="F222" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="G222" s="105"/>
+      <c r="H222" s="105"/>
+      <c r="I222" s="106"/>
       <c r="J222" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K222" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L222" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="M222" s="52"/>
+      <c r="L222" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M222" s="57"/>
     </row>
     <row r="223" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B223" s="92"/>
-      <c r="C223" s="93"/>
-      <c r="D223" s="45"/>
+      <c r="B223" s="113"/>
+      <c r="C223" s="114"/>
+      <c r="D223" s="61"/>
       <c r="E223" s="46"/>
-      <c r="F223" s="84"/>
-      <c r="G223" s="85"/>
-      <c r="H223" s="85"/>
-      <c r="I223" s="86"/>
+      <c r="F223" s="107"/>
+      <c r="G223" s="108"/>
+      <c r="H223" s="108"/>
+      <c r="I223" s="109"/>
       <c r="J223" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K223" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L223" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="M223" s="52"/>
+      <c r="L223" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M223" s="57"/>
     </row>
     <row r="224" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B224" s="94"/>
-      <c r="C224" s="95"/>
-      <c r="D224" s="47"/>
+      <c r="B224" s="86"/>
+      <c r="C224" s="87"/>
+      <c r="D224" s="62"/>
       <c r="E224" s="48"/>
-      <c r="F224" s="87"/>
-      <c r="G224" s="88"/>
-      <c r="H224" s="88"/>
-      <c r="I224" s="89"/>
+      <c r="F224" s="110"/>
+      <c r="G224" s="111"/>
+      <c r="H224" s="111"/>
+      <c r="I224" s="112"/>
       <c r="J224" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K224" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="L224" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="M224" s="52"/>
+        <v>161</v>
+      </c>
+      <c r="L224" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M224" s="57"/>
     </row>
     <row r="225" spans="4:10" x14ac:dyDescent="0.45">
       <c r="I225" s="7"/>
     </row>
     <row r="226" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D226" s="71"/>
-      <c r="E226" s="71"/>
-      <c r="F226" s="71"/>
-      <c r="G226" s="71"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="45"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="225">
+  <mergeCells count="227">
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D167:E169"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D94:E99"/>
+    <mergeCell ref="D84:E87"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="D137:E138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="D162:E163"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="L222:M222"/>
+    <mergeCell ref="L223:M223"/>
+    <mergeCell ref="L224:M224"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="D219:E220"/>
+    <mergeCell ref="B137:C220"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="F192:I192"/>
+    <mergeCell ref="F194:I194"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="F198:I198"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="F211:I211"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="D149:E150"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D222:E224"/>
+    <mergeCell ref="F222:I224"/>
+    <mergeCell ref="B222:C224"/>
+    <mergeCell ref="D152:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="F208:I208"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="F215:I215"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="D215:E217"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="D157:E158"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="D206:E213"/>
+    <mergeCell ref="F206:I206"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F168:I168"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="F163:I163"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="B105:C134"/>
+    <mergeCell ref="D127:E128"/>
+    <mergeCell ref="D65:E71"/>
+    <mergeCell ref="D130:E132"/>
+    <mergeCell ref="D124:E125"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="D171:E174"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="F167:I167"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F199:I199"/>
+    <mergeCell ref="D187:E194"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="D196:E199"/>
+    <mergeCell ref="D201:E204"/>
+    <mergeCell ref="D146:E147"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="F147:I147"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="D178:E185"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="D140:E142"/>
+    <mergeCell ref="F184:I184"/>
+    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="D120:E122"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="D108:E110"/>
+    <mergeCell ref="D105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="D116:E118"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="D112:E114"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C103"/>
+    <mergeCell ref="D31:E39"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D22:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="D49:E52"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="D60:E63"/>
     <mergeCell ref="F73:I73"/>
     <mergeCell ref="F98:I98"/>
@@ -7082,207 +7417,6 @@
     <mergeCell ref="F66:I66"/>
     <mergeCell ref="F117:I117"/>
     <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D22:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="D49:E52"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C103"/>
-    <mergeCell ref="D31:E39"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F212:I212"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="D120:E122"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="D108:E110"/>
-    <mergeCell ref="D105:E106"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="D116:E118"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="D112:E114"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="F199:I199"/>
-    <mergeCell ref="D187:E194"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="D196:E199"/>
-    <mergeCell ref="D201:E204"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F190:I190"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="F147:I147"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="D178:E185"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="F181:I181"/>
-    <mergeCell ref="D140:E142"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="F169:I169"/>
-    <mergeCell ref="B105:C134"/>
-    <mergeCell ref="D127:E128"/>
-    <mergeCell ref="D65:E71"/>
-    <mergeCell ref="D130:E132"/>
-    <mergeCell ref="D124:E125"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="D171:E174"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="F167:I167"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F168:I168"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="F222:I224"/>
-    <mergeCell ref="B222:C224"/>
-    <mergeCell ref="D152:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="F203:I203"/>
-    <mergeCell ref="F208:I208"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="F215:I215"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="D215:E217"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="D157:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="D206:E213"/>
-    <mergeCell ref="F206:I206"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="L222:M222"/>
-    <mergeCell ref="L223:M223"/>
-    <mergeCell ref="L224:M224"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="F220:I220"/>
-    <mergeCell ref="D219:E220"/>
-    <mergeCell ref="B137:C220"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="F214:I214"/>
-    <mergeCell ref="F192:I192"/>
-    <mergeCell ref="F194:I194"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="F198:I198"/>
-    <mergeCell ref="F191:I191"/>
-    <mergeCell ref="F209:I209"/>
-    <mergeCell ref="F210:I210"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="D149:E150"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D222:E224"/>
-    <mergeCell ref="D167:E169"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D94:E99"/>
-    <mergeCell ref="D84:E87"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="D137:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="D162:E163"/>
-    <mergeCell ref="D165:E165"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -7511,18 +7645,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7545,6 +7679,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145F01E7-EF9C-4603-AA2B-FF4DC3E55AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7cd07669-f7e4-4811-9af0-01eecff77126"/>
@@ -7559,12 +7701,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/卒業制作 (3).xlsx
+++ b/卒業制作 (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE3A13\卒業制作\Labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE75E7-DEC6-49E0-93A0-82F9ED79BA9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF4110-D6A2-472E-9CEF-51D88AE79DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7512" xr2:uid="{243CCB41-0353-4C68-8296-4CB6A554B702}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="240">
   <si>
     <t>警察24時</t>
     <rPh sb="0" eb="2">
@@ -1912,6 +1912,196 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイ捨て犯</t>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き缶などのゴミをポイ捨てする処理</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごみを回収する処理</t>
+    <rPh sb="3" eb="5">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごみを３つ回収したらマップにポイ捨て犯の表示をする処理</t>
+    <rPh sb="5" eb="7">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷子猫を探す人</t>
+    <rPh sb="0" eb="3">
+      <t>マイゴネコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹き出しを表示する</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話しかけられた後の処理</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷子猫を探している人に話しかける処理</t>
+    <rPh sb="0" eb="3">
+      <t>マイゴネコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷子猫を保護した後に探している人に話しかける処理</t>
+    <rPh sb="0" eb="3">
+      <t>マイゴネコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷子猫を保護する処理</t>
+    <rPh sb="0" eb="3">
+      <t>マイゴネコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷子猫</t>
+    <rPh sb="0" eb="3">
+      <t>マイゴネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが歩いてきたら逃げずに走ってきたら逃げる処理</t>
+    <rPh sb="6" eb="7">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げる時のスピード調整</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2332,7 +2522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,145 +2652,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2621,6 +2781,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,71 +2853,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3026,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E4AAE-54DD-4F16-91FF-456D394778FB}">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3049,19 +3248,19 @@
   <sheetData>
     <row r="1" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="49"/>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="62"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="53"/>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3075,16 +3274,16 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -3104,10 +3303,10 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="82"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="19"/>
-      <c r="F6" s="82"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3118,20 +3317,20 @@
       </c>
       <c r="O6" s="33"/>
       <c r="P6">
-        <f>SUMIF($K$17:$K$224,$D$5,$L$17:$L$224)</f>
+        <f>SUMIF($K$17:$K$237,$D$5,$L$17:$L$237)</f>
         <v>204</v>
       </c>
       <c r="Q6">
-        <f>SUMIF($K$17:$K$224,$D$8,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$9,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$10,$L$17:$L$224)+SUMIF($K$17:$K$224,$D$11,$L$17:$L$224)</f>
+        <f>SUMIF($K$17:$K$237,$D$8,$L$17:$L$237)+SUMIF($K$17:$K$237,$D$9,$L$17:$L$237)+SUMIF($K$17:$K$237,$D$10,$L$17:$L$237)+SUMIF($K$17:$K$237,$D$11,$L$17:$L$237)</f>
         <v>234</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="82"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="83"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
@@ -3140,8 +3339,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="82"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3152,8 +3351,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="82"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
@@ -3165,8 +3364,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="82"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3178,8 +3377,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="82"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
@@ -3188,8 +3387,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="82"/>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="116" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -3200,8 +3399,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
@@ -3210,8 +3409,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="83"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
@@ -3238,18 +3437,18 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="67"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
@@ -3261,16 +3460,16 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="49" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="67"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
@@ -3295,18 +3494,18 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="123"/>
+      <c r="D20" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="67"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
@@ -3326,14 +3525,14 @@
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="54" t="s">
         <v>34</v>
       </c>
@@ -3351,10 +3550,10 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="54" t="s">
         <v>35</v>
       </c>
@@ -3372,11 +3571,11 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="53" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="69" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="54"/>
@@ -3396,11 +3595,11 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="53" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="69" t="s">
         <v>162</v>
       </c>
       <c r="G25" s="54"/>
@@ -3419,15 +3618,15 @@
         <v>183</v>
       </c>
       <c r="O25">
-        <f>SUMIF($K$22:$K$233,$D$12,$L$22:$L$233)</f>
+        <f>SUMIF($K$22:$K$246,$D$12,$L$22:$L$246)</f>
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="54" t="s">
         <v>37</v>
       </c>
@@ -3447,15 +3646,15 @@
         <v>184</v>
       </c>
       <c r="O26">
-        <f>SUMIF($K$22:$K$224,$D$13,$L$22:$L$224)</f>
+        <f>SUMIF($K$22:$K$237,$D$13,$L$22:$L$237)</f>
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="54" t="s">
         <v>38</v>
       </c>
@@ -3475,16 +3674,16 @@
         <v>185</v>
       </c>
       <c r="O27">
-        <f>SUMIF($K$22:$K$233,$D$14,$L$22:$L$233)</f>
+        <f>SUMIF($K$22:$K$246,$D$14,$L$22:$L$246)</f>
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="53" t="s">
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="69" t="s">
         <v>177</v>
       </c>
       <c r="G28" s="54"/>
@@ -3503,15 +3702,15 @@
         <v>186</v>
       </c>
       <c r="O28">
-        <f>SUMIF($K$22:$K$220,"プログラマー全員",$L$22:$L$220)</f>
+        <f>SUMIF($K$22:$K$233,"プログラマー全員",$L$22:$L$233)</f>
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="54" t="s">
         <v>39</v>
       </c>
@@ -3529,17 +3728,17 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="43" t="s">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="54" t="s">
         <v>41</v>
       </c>
@@ -3557,10 +3756,10 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="54" t="s">
         <v>42</v>
       </c>
@@ -3576,21 +3775,21 @@
       <c r="L32" s="17">
         <v>5</v>
       </c>
-      <c r="N32" s="124" t="s">
+      <c r="N32" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="O32" s="124"/>
-      <c r="Q32" s="124" t="s">
+      <c r="O32" s="47"/>
+      <c r="Q32" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="R32" s="124"/>
+      <c r="R32" s="47"/>
     </row>
     <row r="33" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="53" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="69" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="54"/>
@@ -3605,27 +3804,27 @@
       <c r="L33" s="15">
         <v>3</v>
       </c>
-      <c r="N33" s="125" t="s">
+      <c r="N33" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="O33" s="125">
+      <c r="O33" s="46">
         <f>SUMIF($K$22:$K$103,$D$12,$L$22:$L$103)</f>
         <v>76</v>
       </c>
-      <c r="Q33" s="125" t="s">
+      <c r="Q33" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="R33" s="125">
-        <f>SUMIF($K$137:$K$224,$D$12,$L$137:$L$224)</f>
+      <c r="R33" s="46">
+        <f>SUMIF($K$137:$K$237,$D$12,$L$137:$L$237)</f>
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="53" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="69" t="s">
         <v>163</v>
       </c>
       <c r="G34" s="54"/>
@@ -3640,27 +3839,27 @@
       <c r="L34" s="28">
         <v>3</v>
       </c>
-      <c r="N34" s="125" t="s">
+      <c r="N34" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="O34" s="125">
+      <c r="O34" s="46">
         <f>SUMIF($K$22:$K$103,$D$13,$L$22:$L$103)</f>
         <v>80</v>
       </c>
-      <c r="Q34" s="125" t="s">
+      <c r="Q34" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="R34" s="125">
-        <f>SUMIF($K$137:$K$224,$D$13,$L$137:$L$224)</f>
+      <c r="R34" s="46">
+        <f>SUMIF($K$137:$K$237,$D$13,$L$137:$L$237)</f>
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="53" t="s">
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="69" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="54"/>
@@ -3675,26 +3874,26 @@
       <c r="L35" s="15">
         <v>4</v>
       </c>
-      <c r="N35" s="125" t="s">
+      <c r="N35" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="O35" s="125">
+      <c r="O35" s="46">
         <f>SUMIF($K$22:$K$103,$D$14,$L$22:$L$103)</f>
         <v>54</v>
       </c>
-      <c r="Q35" s="125" t="s">
+      <c r="Q35" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="R35" s="125">
-        <f>SUMIF($K$137:$K$224,$D$14,$L$137:$L$224)</f>
+      <c r="R35" s="46">
+        <f>SUMIF($K$137:$K$237,$D$14,$L$137:$L$237)</f>
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="54" t="s">
         <v>45</v>
       </c>
@@ -3710,27 +3909,27 @@
       <c r="L36" s="15">
         <v>6</v>
       </c>
-      <c r="N36" s="125" t="s">
+      <c r="N36" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="O36" s="125">
+      <c r="O36" s="46">
         <f>SUMIF($K$22:$K$103,"プログラマー全員",$L$22:$L$103)</f>
         <v>66</v>
       </c>
-      <c r="Q36" s="125" t="s">
+      <c r="Q36" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="R36" s="125">
-        <f>SUMIF($K$137:$K$224,"プログラマー全員",$L$137:$L$224)</f>
+      <c r="R36" s="46">
+        <f>SUMIF($K$137:$K$237,"プログラマー全員",$L$137:$L$237)</f>
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="53" t="s">
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="69" t="s">
         <v>221</v>
       </c>
       <c r="G37" s="54"/>
@@ -3747,11 +3946,11 @@
       </c>
     </row>
     <row r="38" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="53" t="s">
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="69" t="s">
         <v>208</v>
       </c>
       <c r="G38" s="54"/>
@@ -3768,10 +3967,10 @@
       </c>
     </row>
     <row r="39" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="54" t="s">
         <v>46</v>
       </c>
@@ -3790,26 +3989,26 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
       <c r="E40" s="7"/>
       <c r="J40" s="6"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="56" t="s">
         <v>167</v>
       </c>
       <c r="E41" s="57"/>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="67"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="5" t="s">
         <v>12</v>
       </c>
@@ -3821,23 +4020,23 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="92"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="43" t="s">
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="49" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="67"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="79"/>
       <c r="J43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3849,10 +4048,10 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="92"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="54" t="s">
         <v>49</v>
       </c>
@@ -3870,8 +4069,8 @@
       </c>
     </row>
     <row r="45" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
@@ -3882,18 +4081,18 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="60" t="s">
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="66" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
       <c r="J46" s="5" t="s">
         <v>11</v>
       </c>
@@ -3905,11 +4104,11 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="92"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="53" t="s">
+      <c r="B47" s="82"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="69" t="s">
         <v>197</v>
       </c>
       <c r="G47" s="54"/>
@@ -3926,18 +4125,18 @@
       </c>
     </row>
     <row r="48" spans="2:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="92"/>
-      <c r="C48" s="93"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
       <c r="F48" s="20"/>
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="92"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="43" t="s">
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="54" t="s">
         <v>223</v>
       </c>
@@ -3955,10 +4154,10 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="54" t="s">
         <v>52</v>
       </c>
@@ -3976,11 +4175,11 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="53" t="s">
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="69" t="s">
         <v>224</v>
       </c>
       <c r="G51" s="54"/>
@@ -3997,10 +4196,10 @@
       </c>
     </row>
     <row r="52" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="54" t="s">
         <v>53</v>
       </c>
@@ -4018,18 +4217,18 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
       <c r="E53" s="3"/>
       <c r="L53" s="16"/>
     </row>
     <row r="54" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="43" t="s">
+      <c r="B54" s="82"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="54" t="s">
         <v>55</v>
       </c>
@@ -4047,16 +4246,16 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="92"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="58" t="s">
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="59"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="125"/>
       <c r="J55" s="5" t="s">
         <v>11</v>
       </c>
@@ -4068,8 +4267,8 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="16"/>
@@ -4078,12 +4277,12 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="92"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="43" t="s">
+      <c r="B57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="44"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="54" t="s">
         <v>58</v>
       </c>
@@ -4101,10 +4300,10 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="92"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="53"/>
       <c r="F58" s="54" t="s">
         <v>59</v>
       </c>
@@ -4122,8 +4321,8 @@
       </c>
     </row>
     <row r="59" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="83"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -4134,18 +4333,18 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="43" t="s">
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="49" t="s">
+      <c r="E60" s="49"/>
+      <c r="F60" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79"/>
       <c r="J60" s="5" t="s">
         <v>7</v>
       </c>
@@ -4157,16 +4356,16 @@
       </c>
     </row>
     <row r="61" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="49" t="s">
+      <c r="B61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="67"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
       <c r="J61" s="5" t="s">
         <v>7</v>
       </c>
@@ -4178,16 +4377,16 @@
       </c>
     </row>
     <row r="62" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="49" t="s">
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="67"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
       <c r="J62" s="5" t="s">
         <v>12</v>
       </c>
@@ -4199,16 +4398,16 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="92"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49" t="s">
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="67"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
       <c r="J63" s="5" t="s">
         <v>7</v>
       </c>
@@ -4220,30 +4419,30 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
       <c r="D64" s="1"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
       <c r="J64" s="3"/>
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="92"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="43" t="s">
+      <c r="B65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="66" t="s">
+      <c r="E65" s="49"/>
+      <c r="F65" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="67"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="79"/>
       <c r="J65" s="5" t="s">
         <v>12</v>
       </c>
@@ -4255,16 +4454,16 @@
       </c>
     </row>
     <row r="66" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="66" t="s">
+      <c r="B66" s="82"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="67"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="79"/>
       <c r="J66" s="5" t="s">
         <v>12</v>
       </c>
@@ -4276,16 +4475,16 @@
       </c>
     </row>
     <row r="67" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="92"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="66" t="s">
+      <c r="B67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="67"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="79"/>
       <c r="J67" s="5" t="s">
         <v>12</v>
       </c>
@@ -4297,16 +4496,16 @@
       </c>
     </row>
     <row r="68" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="92"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="66" t="s">
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="67"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="79"/>
       <c r="J68" s="5" t="s">
         <v>12</v>
       </c>
@@ -4318,16 +4517,16 @@
       </c>
     </row>
     <row r="69" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="92"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="66" t="s">
+      <c r="B69" s="82"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="67"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="79"/>
       <c r="J69" s="5" t="s">
         <v>12</v>
       </c>
@@ -4339,16 +4538,16 @@
       </c>
     </row>
     <row r="70" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="92"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="66" t="s">
+      <c r="B70" s="82"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="67"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="79"/>
       <c r="J70" s="5" t="s">
         <v>12</v>
       </c>
@@ -4360,16 +4559,16 @@
       </c>
     </row>
     <row r="71" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="92"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="66" t="s">
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="67"/>
+      <c r="G71" s="78"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="79"/>
       <c r="J71" s="5" t="s">
         <v>12</v>
       </c>
@@ -4381,31 +4580,31 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="92"/>
-      <c r="C72" s="93"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="83"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
       <c r="J72" s="3"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
     </row>
     <row r="73" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="92"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="60" t="s">
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="49" t="s">
+      <c r="E73" s="49"/>
+      <c r="F73" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="5" t="s">
         <v>11</v>
       </c>
@@ -4417,16 +4616,16 @@
       </c>
     </row>
     <row r="74" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="92"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="49" t="s">
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="67"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="79"/>
       <c r="J74" s="5" t="s">
         <v>11</v>
       </c>
@@ -4438,16 +4637,16 @@
       </c>
     </row>
     <row r="75" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="92"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="49" t="s">
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
       <c r="J75" s="5" t="s">
         <v>11</v>
       </c>
@@ -4459,23 +4658,23 @@
       </c>
     </row>
     <row r="76" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="92"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
       <c r="J76" s="3"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
     <row r="77" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="92"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="54" t="s">
         <v>77</v>
       </c>
@@ -4493,11 +4692,11 @@
       </c>
     </row>
     <row r="78" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="92"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="53" t="s">
+      <c r="B78" s="82"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="69" t="s">
         <v>203</v>
       </c>
       <c r="G78" s="54"/>
@@ -4514,10 +4713,10 @@
       </c>
     </row>
     <row r="79" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="92"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="46"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="54" t="s">
         <v>78</v>
       </c>
@@ -4535,10 +4734,10 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="92"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="46"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="54" t="s">
         <v>79</v>
       </c>
@@ -4556,10 +4755,10 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="92"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="46"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="54" t="s">
         <v>80</v>
       </c>
@@ -4577,11 +4776,11 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="92"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="53" t="s">
+      <c r="B82" s="82"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="69" t="s">
         <v>206</v>
       </c>
       <c r="G82" s="54"/>
@@ -4598,8 +4797,8 @@
       </c>
     </row>
     <row r="83" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="92"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="83"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4610,18 +4809,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="92"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="43" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="44"/>
-      <c r="F84" s="63" t="s">
+      <c r="E84" s="49"/>
+      <c r="F84" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="65"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="128"/>
       <c r="J84" s="5" t="s">
         <v>7</v>
       </c>
@@ -4633,11 +4832,11 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="92"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="121"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="53" t="s">
+      <c r="B85" s="82"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="69" t="s">
         <v>214</v>
       </c>
       <c r="G85" s="54"/>
@@ -4654,11 +4853,11 @@
       </c>
     </row>
     <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="92"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="53" t="s">
+      <c r="B86" s="82"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="69" t="s">
         <v>213</v>
       </c>
       <c r="G86" s="54"/>
@@ -4675,16 +4874,16 @@
       </c>
     </row>
     <row r="87" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="92"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="63" t="s">
+      <c r="B87" s="82"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="65"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="128"/>
       <c r="J87" s="5" t="s">
         <v>7</v>
       </c>
@@ -4696,8 +4895,8 @@
       </c>
     </row>
     <row r="88" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="92"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="83"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
@@ -4708,13 +4907,13 @@
       <c r="L88"/>
     </row>
     <row r="89" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B89" s="92"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="60" t="s">
+      <c r="B89" s="82"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="53" t="s">
+      <c r="E89" s="49"/>
+      <c r="F89" s="69" t="s">
         <v>205</v>
       </c>
       <c r="G89" s="54"/>
@@ -4731,11 +4930,11 @@
       </c>
     </row>
     <row r="90" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B90" s="92"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="53" t="s">
+      <c r="B90" s="82"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="69" t="s">
         <v>204</v>
       </c>
       <c r="G90" s="54"/>
@@ -4752,8 +4951,8 @@
       </c>
     </row>
     <row r="91" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B91" s="92"/>
-      <c r="C91" s="93"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="83"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="37"/>
@@ -4762,18 +4961,18 @@
       <c r="I91" s="37"/>
     </row>
     <row r="92" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B92" s="92"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="122" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E92" s="123"/>
-      <c r="F92" s="50" t="s">
+      <c r="E92" s="68"/>
+      <c r="F92" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="52"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="75"/>
       <c r="J92" s="5" t="s">
         <v>7</v>
       </c>
@@ -4785,8 +4984,8 @@
       </c>
     </row>
     <row r="93" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B93" s="92"/>
-      <c r="C93" s="93"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="83"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="37"/>
@@ -4795,18 +4994,18 @@
       <c r="I93" s="37"/>
     </row>
     <row r="94" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="92"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="115" t="s">
+      <c r="B94" s="82"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E94" s="116"/>
-      <c r="F94" s="50" t="s">
+      <c r="E94" s="59"/>
+      <c r="F94" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="52"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="75"/>
       <c r="J94" s="5" t="s">
         <v>7</v>
       </c>
@@ -4818,16 +5017,16 @@
       </c>
     </row>
     <row r="95" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="92"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="118"/>
-      <c r="F95" s="50" t="s">
+      <c r="B95" s="82"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="52"/>
+      <c r="G95" s="74"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="75"/>
       <c r="J95" s="5" t="s">
         <v>7</v>
       </c>
@@ -4839,16 +5038,16 @@
       </c>
     </row>
     <row r="96" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="92"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="118"/>
-      <c r="F96" s="50" t="s">
+      <c r="B96" s="82"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="52"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="75"/>
       <c r="J96" s="5" t="s">
         <v>7</v>
       </c>
@@ -4860,16 +5059,16 @@
       </c>
     </row>
     <row r="97" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="92"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="118"/>
-      <c r="F97" s="50" t="s">
+      <c r="B97" s="82"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="52"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="75"/>
       <c r="J97" s="5" t="s">
         <v>7</v>
       </c>
@@ -4881,16 +5080,16 @@
       </c>
     </row>
     <row r="98" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="92"/>
-      <c r="C98" s="93"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="118"/>
-      <c r="F98" s="50" t="s">
+      <c r="B98" s="82"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="52"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="75"/>
       <c r="J98" s="5" t="s">
         <v>7</v>
       </c>
@@ -4902,16 +5101,16 @@
       </c>
     </row>
     <row r="99" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B99" s="92"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="119"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="50" t="s">
+      <c r="B99" s="82"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="52"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="75"/>
       <c r="J99" s="5" t="s">
         <v>7</v>
       </c>
@@ -4923,8 +5122,8 @@
       </c>
     </row>
     <row r="100" spans="2:12" s="35" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="92"/>
-      <c r="C100" s="93"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="83"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="37"/>
@@ -4933,18 +5132,18 @@
       <c r="I100" s="37"/>
     </row>
     <row r="101" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B101" s="92"/>
-      <c r="C101" s="93"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="83"/>
       <c r="D101" s="56" t="s">
         <v>81</v>
       </c>
       <c r="E101" s="57"/>
-      <c r="F101" s="66" t="s">
+      <c r="F101" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="67"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="79"/>
       <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
@@ -4954,8 +5153,8 @@
       <c r="L101" s="17"/>
     </row>
     <row r="102" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B102" s="92"/>
-      <c r="C102" s="93"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="83"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="26"/>
@@ -4966,18 +5165,18 @@
       <c r="K102" s="25"/>
     </row>
     <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B103" s="94"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="68" t="s">
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="101" t="s">
         <v>83</v>
       </c>
       <c r="E103" s="57"/>
-      <c r="F103" s="66" t="s">
+      <c r="F103" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="67"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="79"/>
       <c r="J103" s="4" t="s">
         <v>7</v>
       </c>
@@ -4990,20 +5189,20 @@
     </row>
     <row r="104" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="105" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B105" s="90" t="s">
+      <c r="B105" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C105" s="91"/>
-      <c r="D105" s="43" t="s">
+      <c r="C105" s="81"/>
+      <c r="D105" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E105" s="44"/>
-      <c r="F105" s="69" t="s">
+      <c r="E105" s="49"/>
+      <c r="F105" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="71"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="5" t="s">
         <v>7</v>
       </c>
@@ -5015,16 +5214,16 @@
       </c>
     </row>
     <row r="106" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B106" s="92"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="69" t="s">
+      <c r="B106" s="82"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="G106" s="70"/>
-      <c r="H106" s="70"/>
-      <c r="I106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="72"/>
       <c r="J106" s="5" t="s">
         <v>7</v>
       </c>
@@ -5034,22 +5233,22 @@
       </c>
     </row>
     <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B107" s="92"/>
-      <c r="C107" s="93"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="83"/>
     </row>
     <row r="108" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B108" s="92"/>
-      <c r="C108" s="93"/>
-      <c r="D108" s="43" t="s">
+      <c r="B108" s="82"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="69" t="s">
+      <c r="E108" s="49"/>
+      <c r="F108" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
-      <c r="I108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="72"/>
       <c r="J108" s="5" t="s">
         <v>7</v>
       </c>
@@ -5061,16 +5260,16 @@
       </c>
     </row>
     <row r="109" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B109" s="92"/>
-      <c r="C109" s="93"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="69" t="s">
+      <c r="B109" s="82"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="72"/>
       <c r="J109" s="5" t="s">
         <v>7</v>
       </c>
@@ -5080,16 +5279,16 @@
       </c>
     </row>
     <row r="110" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B110" s="92"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="69" t="s">
+      <c r="B110" s="82"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="G110" s="70"/>
-      <c r="H110" s="70"/>
-      <c r="I110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="72"/>
       <c r="J110" s="5" t="s">
         <v>12</v>
       </c>
@@ -5101,23 +5300,23 @@
       </c>
     </row>
     <row r="111" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B111" s="92"/>
-      <c r="C111" s="93"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="83"/>
       <c r="L111" s="16"/>
     </row>
     <row r="112" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B112" s="92"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="43" t="s">
+      <c r="B112" s="82"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E112" s="44"/>
-      <c r="F112" s="69" t="s">
+      <c r="E112" s="49"/>
+      <c r="F112" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G112" s="70"/>
-      <c r="H112" s="70"/>
-      <c r="I112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="72"/>
       <c r="J112" s="5" t="s">
         <v>11</v>
       </c>
@@ -5129,16 +5328,16 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B113" s="92"/>
-      <c r="C113" s="93"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="69" t="s">
+      <c r="B113" s="82"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="71"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="72"/>
       <c r="J113" s="5" t="s">
         <v>11</v>
       </c>
@@ -5148,16 +5347,16 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B114" s="92"/>
-      <c r="C114" s="93"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="69" t="s">
+      <c r="B114" s="82"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="71"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="71"/>
+      <c r="I114" s="72"/>
       <c r="J114" s="5" t="s">
         <v>12</v>
       </c>
@@ -5169,23 +5368,23 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B115" s="92"/>
-      <c r="C115" s="93"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="83"/>
       <c r="L115" s="16"/>
     </row>
     <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B116" s="92"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="43" t="s">
+      <c r="B116" s="82"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="44"/>
-      <c r="F116" s="69" t="s">
+      <c r="E116" s="49"/>
+      <c r="F116" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G116" s="70"/>
-      <c r="H116" s="70"/>
-      <c r="I116" s="71"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="72"/>
       <c r="J116" s="5" t="s">
         <v>11</v>
       </c>
@@ -5198,16 +5397,16 @@
     </row>
     <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="46"/>
-      <c r="F117" s="69" t="s">
+      <c r="B117" s="82"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G117" s="70"/>
-      <c r="H117" s="70"/>
-      <c r="I117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="72"/>
       <c r="J117" s="5" t="s">
         <v>11</v>
       </c>
@@ -5217,16 +5416,16 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B118" s="92"/>
-      <c r="C118" s="93"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="69" t="s">
+      <c r="B118" s="82"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="72"/>
       <c r="J118" s="5" t="s">
         <v>12</v>
       </c>
@@ -5238,23 +5437,23 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="92"/>
-      <c r="C119" s="93"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="83"/>
       <c r="L119" s="16"/>
     </row>
     <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B120" s="92"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="43" t="s">
+      <c r="B120" s="82"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E120" s="44"/>
-      <c r="F120" s="69" t="s">
+      <c r="E120" s="49"/>
+      <c r="F120" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="G120" s="70"/>
-      <c r="H120" s="70"/>
-      <c r="I120" s="70"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
       <c r="J120" s="5" t="s">
         <v>11</v>
       </c>
@@ -5266,16 +5465,16 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B121" s="92"/>
-      <c r="C121" s="93"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="69" t="s">
+      <c r="B121" s="82"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
       <c r="J121" s="5" t="s">
         <v>11</v>
       </c>
@@ -5285,16 +5484,16 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B122" s="92"/>
-      <c r="C122" s="93"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="69" t="s">
+      <c r="B122" s="82"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
-      <c r="I122" s="70"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
       <c r="J122" s="5" t="s">
         <v>12</v>
       </c>
@@ -5306,22 +5505,22 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B123" s="92"/>
-      <c r="C123" s="93"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="83"/>
     </row>
     <row r="124" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B124" s="92"/>
-      <c r="C124" s="93"/>
-      <c r="D124" s="60" t="s">
+      <c r="B124" s="82"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E124" s="44"/>
-      <c r="F124" s="69" t="s">
+      <c r="E124" s="49"/>
+      <c r="F124" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="71"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="72"/>
       <c r="J124" s="5" t="s">
         <v>7</v>
       </c>
@@ -5333,16 +5532,16 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B125" s="92"/>
-      <c r="C125" s="93"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="69" t="s">
+      <c r="B125" s="82"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
-      <c r="I125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="72"/>
       <c r="J125" s="5" t="s">
         <v>7</v>
       </c>
@@ -5354,8 +5553,8 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B126" s="92"/>
-      <c r="C126" s="93"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="83"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -5364,18 +5563,18 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B127" s="92"/>
-      <c r="C127" s="93"/>
-      <c r="D127" s="43" t="s">
+      <c r="B127" s="82"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E127" s="44"/>
-      <c r="F127" s="69" t="s">
+      <c r="E127" s="49"/>
+      <c r="F127" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="72"/>
       <c r="J127" s="5" t="s">
         <v>12</v>
       </c>
@@ -5387,16 +5586,16 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B128" s="92"/>
-      <c r="C128" s="93"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="69" t="s">
+      <c r="B128" s="82"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="G128" s="70"/>
-      <c r="H128" s="70"/>
-      <c r="I128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="72"/>
       <c r="J128" s="5" t="s">
         <v>12</v>
       </c>
@@ -5408,8 +5607,8 @@
       </c>
     </row>
     <row r="129" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B129" s="92"/>
-      <c r="C129" s="93"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="83"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -5418,18 +5617,18 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B130" s="92"/>
-      <c r="C130" s="93"/>
-      <c r="D130" s="43" t="s">
+      <c r="B130" s="82"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="44"/>
-      <c r="F130" s="69" t="s">
+      <c r="E130" s="49"/>
+      <c r="F130" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="70"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="72"/>
       <c r="J130" s="5" t="s">
         <v>7</v>
       </c>
@@ -5441,16 +5640,16 @@
       </c>
     </row>
     <row r="131" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B131" s="92"/>
-      <c r="C131" s="93"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="46"/>
-      <c r="F131" s="69" t="s">
+      <c r="B131" s="82"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="72"/>
       <c r="J131" s="5" t="s">
         <v>7</v>
       </c>
@@ -5462,16 +5661,16 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B132" s="92"/>
-      <c r="C132" s="93"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="69" t="s">
+      <c r="B132" s="82"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G132" s="70"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="72"/>
       <c r="J132" s="5" t="s">
         <v>11</v>
       </c>
@@ -5483,8 +5682,8 @@
       </c>
     </row>
     <row r="133" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B133" s="92"/>
-      <c r="C133" s="93"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="83"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -5494,18 +5693,18 @@
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B134" s="94"/>
-      <c r="C134" s="95"/>
-      <c r="D134" s="68" t="s">
+      <c r="B134" s="84"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="101" t="s">
         <v>106</v>
       </c>
       <c r="E134" s="57"/>
-      <c r="F134" s="102" t="s">
+      <c r="F134" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="G134" s="103"/>
-      <c r="H134" s="103"/>
-      <c r="I134" s="103"/>
+      <c r="G134" s="109"/>
+      <c r="H134" s="109"/>
+      <c r="I134" s="109"/>
       <c r="J134" s="5" t="s">
         <v>7</v>
       </c>
@@ -5525,14 +5724,14 @@
       <c r="C136" s="10"/>
     </row>
     <row r="137" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B137" s="90" t="s">
+      <c r="B137" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="91"/>
-      <c r="D137" s="60" t="s">
+      <c r="C137" s="81"/>
+      <c r="D137" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E137" s="44"/>
+      <c r="E137" s="49"/>
       <c r="F137" s="54" t="s">
         <v>190</v>
       </c>
@@ -5550,11 +5749,11 @@
       </c>
     </row>
     <row r="138" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B138" s="92"/>
-      <c r="C138" s="93"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="53" t="s">
+      <c r="B138" s="82"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="54" t="s">
         <v>211</v>
       </c>
       <c r="G138" s="54"/>
@@ -5571,86 +5770,68 @@
       </c>
     </row>
     <row r="139" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B139" s="92"/>
-      <c r="C139" s="93"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="41"/>
-      <c r="L139" s="40"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" s="54"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="55"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="5"/>
     </row>
     <row r="140" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B140" s="92"/>
-      <c r="C140" s="93"/>
-      <c r="D140" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E140" s="44"/>
-      <c r="F140" s="54" t="s">
-        <v>192</v>
+      <c r="B140" s="82"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="69" t="s">
+        <v>235</v>
       </c>
       <c r="G140" s="54"/>
       <c r="H140" s="54"/>
       <c r="I140" s="55"/>
-      <c r="J140" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K140" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L140" s="5">
-        <v>5</v>
-      </c>
+      <c r="J140" s="5"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="92"/>
-      <c r="C141" s="93"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="54" t="s">
-        <v>195</v>
+      <c r="B141" s="82"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="69" t="s">
+        <v>236</v>
       </c>
       <c r="G141" s="54"/>
       <c r="H141" s="54"/>
       <c r="I141" s="55"/>
-      <c r="J141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L141" s="5">
-        <v>3</v>
-      </c>
+      <c r="J141" s="5"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="5"/>
     </row>
     <row r="142" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B142" s="92"/>
-      <c r="C142" s="93"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="53" t="s">
-        <v>196</v>
+      <c r="B142" s="82"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54" t="s">
+        <v>229</v>
       </c>
       <c r="G142" s="54"/>
       <c r="H142" s="54"/>
       <c r="I142" s="55"/>
-      <c r="J142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L142" s="5">
-        <v>5</v>
-      </c>
+      <c r="J142" s="5"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="5"/>
     </row>
     <row r="143" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B143" s="92"/>
-      <c r="C143" s="93"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="83"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="41"/>
@@ -5662,110 +5843,119 @@
       <c r="L143" s="40"/>
     </row>
     <row r="144" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B144" s="92"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E144" s="57"/>
-      <c r="F144" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="67"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144" s="49"/>
+      <c r="F144" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G144" s="54"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="55"/>
       <c r="J144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K144" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B145" s="82"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G145" s="54"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L144" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B145" s="92"/>
-      <c r="C145" s="93"/>
+      <c r="K145" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="146" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B146" s="92"/>
-      <c r="C146" s="93"/>
-      <c r="D146" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E146" s="44"/>
-      <c r="F146" s="54" t="s">
-        <v>110</v>
+      <c r="B146" s="82"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="69" t="s">
+        <v>196</v>
       </c>
       <c r="G146" s="54"/>
       <c r="H146" s="54"/>
       <c r="I146" s="55"/>
       <c r="J146" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K146" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L146" s="17">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="L146" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B147" s="92"/>
-      <c r="C147" s="93"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="66" t="s">
+      <c r="B147" s="82"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="41"/>
+      <c r="L147" s="40"/>
+    </row>
+    <row r="148" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B148" s="82"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E148" s="57"/>
+      <c r="F148" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
-      <c r="I147" s="67"/>
-      <c r="J147" s="5" t="s">
+      <c r="G148" s="78"/>
+      <c r="H148" s="78"/>
+      <c r="I148" s="79"/>
+      <c r="J148" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="21" t="s">
+      <c r="K148" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L147" s="17">
+      <c r="L148" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B148" s="92"/>
-      <c r="C148" s="93"/>
-    </row>
     <row r="149" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B149" s="92"/>
-      <c r="C149" s="93"/>
-      <c r="D149" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E149" s="44"/>
-      <c r="F149" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L149" s="5">
-        <v>2</v>
-      </c>
+      <c r="B149" s="82"/>
+      <c r="C149" s="83"/>
     </row>
     <row r="150" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B150" s="92"/>
-      <c r="C150" s="93"/>
-      <c r="D150" s="62"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="53" t="s">
-        <v>113</v>
+      <c r="B150" s="82"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150" s="49"/>
+      <c r="F150" s="54" t="s">
+        <v>110</v>
       </c>
       <c r="G150" s="54"/>
       <c r="H150" s="54"/>
@@ -5776,654 +5966,607 @@
       <c r="K150" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L150" s="15">
-        <v>3</v>
+      <c r="L150" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B151" s="92"/>
-      <c r="C151" s="93"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="53"/>
+      <c r="F151" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G151" s="78"/>
+      <c r="H151" s="78"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L151" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="152" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B152" s="92"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E152" s="44"/>
-      <c r="F152" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G152" s="54"/>
-      <c r="H152" s="54"/>
-      <c r="I152" s="55"/>
-      <c r="J152" s="4" t="s">
+      <c r="B152" s="82"/>
+      <c r="C152" s="83"/>
+    </row>
+    <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B153" s="82"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E153" s="49"/>
+      <c r="F153" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G153" s="78"/>
+      <c r="H153" s="78"/>
+      <c r="I153" s="79"/>
+      <c r="J153" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L152" s="5">
+      <c r="K153" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B153" s="92"/>
-      <c r="C153" s="93"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="G153" s="49"/>
-      <c r="H153" s="49"/>
-      <c r="I153" s="67"/>
-      <c r="J153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L153" s="17">
+      <c r="L153" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B154" s="92"/>
-      <c r="C154" s="93"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="46"/>
-      <c r="F154" s="53" t="s">
-        <v>117</v>
+      <c r="B154" s="82"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="69" t="s">
+        <v>113</v>
       </c>
       <c r="G154" s="54"/>
       <c r="H154" s="54"/>
       <c r="I154" s="55"/>
-      <c r="J154" s="4" t="s">
+      <c r="J154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K154" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B155" s="82"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B156" s="82"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" s="57"/>
+      <c r="F156" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G156" s="101"/>
+      <c r="H156" s="101"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B157" s="82"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="76"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="43"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="43"/>
+    </row>
+    <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B158" s="82"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E158" s="49"/>
+      <c r="F158" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="G158" s="101"/>
+      <c r="H158" s="101"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B159" s="82"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G159" s="101"/>
+      <c r="H159" s="101"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B160" s="82"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
+    </row>
+    <row r="161" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B161" s="82"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" s="49"/>
+      <c r="F161" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G161" s="101"/>
+      <c r="H161" s="101"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B162" s="82"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="53"/>
+      <c r="F162" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="G162" s="101"/>
+      <c r="H162" s="101"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B163" s="82"/>
+      <c r="C163" s="83"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="43"/>
+    </row>
+    <row r="164" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B164" s="82"/>
+      <c r="C164" s="83"/>
+      <c r="D164" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E164" s="49"/>
+      <c r="F164" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G164" s="54"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="55"/>
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="5" t="s">
+      <c r="K164" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L154" s="17">
+      <c r="L164" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B155" s="92"/>
-      <c r="C155" s="93"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="66" t="s">
+    <row r="165" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B165" s="82"/>
+      <c r="C165" s="83"/>
+      <c r="D165" s="76"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="G165" s="78"/>
+      <c r="H165" s="78"/>
+      <c r="I165" s="79"/>
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L165" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B166" s="82"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="76"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B167" s="82"/>
+      <c r="C167" s="83"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="53"/>
+      <c r="F167" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="G155" s="49"/>
-      <c r="H155" s="49"/>
-      <c r="I155" s="67"/>
-      <c r="J155" s="4" t="s">
+      <c r="G167" s="78"/>
+      <c r="H167" s="78"/>
+      <c r="I167" s="79"/>
+      <c r="J167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K167" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L155" s="17">
+      <c r="L167" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B156" s="92"/>
-      <c r="C156" s="93"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B157" s="92"/>
-      <c r="C157" s="93"/>
-      <c r="D157" s="60" t="s">
+    <row r="168" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B168" s="82"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B169" s="82"/>
+      <c r="C169" s="83"/>
+      <c r="D169" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E157" s="44"/>
-      <c r="F157" s="54" t="s">
+      <c r="E169" s="49"/>
+      <c r="F169" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="G157" s="54"/>
-      <c r="H157" s="54"/>
-      <c r="I157" s="55"/>
-      <c r="J157" s="5" t="s">
+      <c r="G169" s="54"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="5" t="s">
+      <c r="K169" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L169" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B158" s="92"/>
-      <c r="C158" s="93"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="53" t="s">
+    <row r="170" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B170" s="82"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="53"/>
+      <c r="F170" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="55"/>
-      <c r="J158" s="5" t="s">
+      <c r="G170" s="54"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="5" t="s">
+      <c r="K170" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L158" s="30">
+      <c r="L170" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B159" s="92"/>
-      <c r="C159" s="93"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-    </row>
-    <row r="160" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B160" s="92"/>
-      <c r="C160" s="93"/>
-      <c r="D160" s="56" t="s">
+    <row r="171" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B171" s="82"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+    </row>
+    <row r="172" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B172" s="82"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="E160" s="68"/>
-      <c r="F160" s="53" t="s">
+      <c r="E172" s="101"/>
+      <c r="F172" s="69" t="s">
         <v>215</v>
-      </c>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
-      <c r="I160" s="55"/>
-      <c r="J160" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L160" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B161" s="92"/>
-      <c r="C161" s="93"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-    </row>
-    <row r="162" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B162" s="92"/>
-      <c r="C162" s="93"/>
-      <c r="D162" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="E162" s="44"/>
-      <c r="F162" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G162" s="54"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K162" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B163" s="92"/>
-      <c r="C163" s="93"/>
-      <c r="D163" s="62"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="G163" s="54"/>
-      <c r="H163" s="54"/>
-      <c r="I163" s="55"/>
-      <c r="J163" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L163" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B164" s="92"/>
-      <c r="C164" s="93"/>
-      <c r="D164" s="42"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="42"/>
-      <c r="L164" s="42"/>
-    </row>
-    <row r="165" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B165" s="92"/>
-      <c r="C165" s="93"/>
-      <c r="D165" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="E165" s="57"/>
-      <c r="F165" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K165" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L165" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B166" s="92"/>
-      <c r="C166" s="93"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="42"/>
-      <c r="L166" s="42"/>
-    </row>
-    <row r="167" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B167" s="92"/>
-      <c r="C167" s="93"/>
-      <c r="D167" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E167" s="44"/>
-      <c r="F167" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G167" s="100"/>
-      <c r="H167" s="100"/>
-      <c r="I167" s="101"/>
-      <c r="J167" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K167" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L167" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B168" s="92"/>
-      <c r="C168" s="93"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="46"/>
-      <c r="F168" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="G168" s="97"/>
-      <c r="H168" s="97"/>
-      <c r="I168" s="98"/>
-      <c r="J168" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K168" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L168" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="92"/>
-      <c r="C169" s="93"/>
-      <c r="D169" s="62"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="G169" s="97"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="98"/>
-      <c r="J169" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K169" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L169" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B170" s="92"/>
-      <c r="C170" s="93"/>
-    </row>
-    <row r="171" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B171" s="92"/>
-      <c r="C171" s="93"/>
-      <c r="D171" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" s="44"/>
-      <c r="F171" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="55"/>
-      <c r="J171" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K171" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L171" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B172" s="92"/>
-      <c r="C172" s="93"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="53" t="s">
-        <v>121</v>
       </c>
       <c r="G172" s="54"/>
       <c r="H172" s="54"/>
       <c r="I172" s="55"/>
       <c r="J172" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L172" s="5">
         <v>7</v>
       </c>
-      <c r="K172" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L172" s="34">
-        <v>2</v>
-      </c>
     </row>
     <row r="173" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B173" s="92"/>
-      <c r="C173" s="93"/>
-      <c r="D173" s="45"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G173" s="54"/>
-      <c r="H173" s="54"/>
-      <c r="I173" s="55"/>
-      <c r="J173" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K173" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L173" s="34">
-        <v>6</v>
-      </c>
+      <c r="B173" s="82"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="27"/>
     </row>
     <row r="174" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B174" s="92"/>
-      <c r="C174" s="93"/>
-      <c r="D174" s="47"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="53" t="s">
-        <v>123</v>
+      <c r="B174" s="82"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E174" s="49"/>
+      <c r="F174" s="54" t="s">
+        <v>217</v>
       </c>
       <c r="G174" s="54"/>
       <c r="H174" s="54"/>
       <c r="I174" s="55"/>
       <c r="J174" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B175" s="82"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="55"/>
+      <c r="J175" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B176" s="82"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42"/>
+    </row>
+    <row r="177" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B177" s="82"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E177" s="57"/>
+      <c r="F177" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
+      <c r="I177" s="55"/>
+      <c r="J177" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B178" s="82"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="42"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42"/>
+    </row>
+    <row r="179" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B179" s="82"/>
+      <c r="C179" s="83"/>
+      <c r="D179" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E179" s="49"/>
+      <c r="F179" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="G179" s="106"/>
+      <c r="H179" s="106"/>
+      <c r="I179" s="107"/>
+      <c r="J179" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L179" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B180" s="82"/>
+      <c r="C180" s="83"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="G180" s="103"/>
+      <c r="H180" s="103"/>
+      <c r="I180" s="104"/>
+      <c r="J180" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L180" s="31">
         <v>7</v>
       </c>
-      <c r="K174" s="21" t="s">
+    </row>
+    <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B181" s="82"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="103"/>
+      <c r="H181" s="103"/>
+      <c r="I181" s="104"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="44"/>
+    </row>
+    <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B182" s="82"/>
+      <c r="C182" s="83"/>
+      <c r="D182" s="52"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="G182" s="103"/>
+      <c r="H182" s="103"/>
+      <c r="I182" s="104"/>
+      <c r="J182" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K182" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L174" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B175" s="92"/>
-      <c r="C175" s="93"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="45"/>
-      <c r="H175" s="45"/>
-      <c r="I175" s="45"/>
-    </row>
-    <row r="176" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B176" s="92"/>
-      <c r="C176" s="93"/>
-      <c r="D176" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="E176" s="57"/>
-      <c r="F176" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="G176" s="54"/>
-      <c r="H176" s="54"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K176" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L176" s="5">
+      <c r="L182" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B177" s="92"/>
-      <c r="C177" s="93"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="45"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="45"/>
-    </row>
-    <row r="178" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B178" s="92"/>
-      <c r="C178" s="93"/>
-      <c r="D178" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="E178" s="44"/>
-      <c r="F178" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="G178" s="54"/>
-      <c r="H178" s="54"/>
-      <c r="I178" s="55"/>
-      <c r="J178" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K178" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L178" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B179" s="92"/>
-      <c r="C179" s="93"/>
-      <c r="D179" s="61"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="G179" s="54"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="55"/>
-      <c r="J179" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L179" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B180" s="92"/>
-      <c r="C180" s="93"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="46"/>
-      <c r="F180" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G180" s="54"/>
-      <c r="H180" s="54"/>
-      <c r="I180" s="55"/>
-      <c r="J180" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K180" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L180" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B181" s="92"/>
-      <c r="C181" s="93"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="46"/>
-      <c r="F181" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K181" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L181" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B182" s="92"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K182" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="L182" s="5">
-        <v>15</v>
-      </c>
-    </row>
     <row r="183" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B183" s="92"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="46"/>
-      <c r="F183" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="55"/>
-      <c r="J183" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K183" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L183" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B184" s="92"/>
-      <c r="C184" s="93"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="46"/>
-      <c r="F184" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="G184" s="51"/>
-      <c r="H184" s="51"/>
-      <c r="I184" s="52"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="83"/>
+    </row>
+    <row r="184" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B184" s="82"/>
+      <c r="C184" s="83"/>
+      <c r="D184" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E184" s="49"/>
+      <c r="F184" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G184" s="54"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="55"/>
       <c r="J184" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K184" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="L184" s="38">
-        <v>15</v>
+      <c r="K184" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L184" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B185" s="92"/>
-      <c r="C185" s="93"/>
-      <c r="D185" s="62"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="53" t="s">
-        <v>200</v>
+      <c r="B185" s="82"/>
+      <c r="C185" s="83"/>
+      <c r="D185" s="76"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="69" t="s">
+        <v>121</v>
       </c>
       <c r="G185" s="54"/>
       <c r="H185" s="54"/>
@@ -6431,925 +6574,1069 @@
       <c r="J185" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K185" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="L185" s="5">
-        <v>30</v>
+      <c r="K185" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L185" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B186" s="92"/>
-      <c r="C186" s="93"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="K186" s="33"/>
-      <c r="L186" s="33"/>
+      <c r="B186" s="82"/>
+      <c r="C186" s="83"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G186" s="54"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="55"/>
+      <c r="J186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K186" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L186" s="34">
+        <v>6</v>
+      </c>
     </row>
     <row r="187" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B187" s="92"/>
-      <c r="C187" s="93"/>
-      <c r="D187" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E187" s="44"/>
-      <c r="F187" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="G187" s="49"/>
-      <c r="H187" s="49"/>
-      <c r="I187" s="67"/>
+      <c r="B187" s="82"/>
+      <c r="C187" s="83"/>
+      <c r="D187" s="66"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G187" s="54"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="55"/>
       <c r="J187" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K187" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L187" s="39">
         <v>5</v>
       </c>
-      <c r="L187" s="17">
-        <v>4</v>
-      </c>
     </row>
     <row r="188" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B188" s="92"/>
-      <c r="C188" s="93"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="46"/>
-      <c r="F188" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="G188" s="49"/>
-      <c r="H188" s="49"/>
-      <c r="I188" s="67"/>
-      <c r="J188" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L188" s="17">
-        <v>4</v>
-      </c>
+      <c r="B188" s="82"/>
+      <c r="C188" s="83"/>
+      <c r="F188" s="76"/>
+      <c r="G188" s="76"/>
+      <c r="H188" s="76"/>
+      <c r="I188" s="76"/>
     </row>
     <row r="189" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B189" s="92"/>
-      <c r="C189" s="93"/>
-      <c r="D189" s="45"/>
-      <c r="E189" s="46"/>
-      <c r="F189" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
-      <c r="I189" s="67"/>
+      <c r="B189" s="82"/>
+      <c r="C189" s="83"/>
+      <c r="D189" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189" s="57"/>
+      <c r="F189" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="G189" s="54"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="55"/>
       <c r="J189" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K189" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L189" s="17">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="L189" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B190" s="92"/>
-      <c r="C190" s="93"/>
-      <c r="D190" s="45"/>
-      <c r="E190" s="46"/>
-      <c r="F190" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="G190" s="49"/>
-      <c r="H190" s="49"/>
-      <c r="I190" s="67"/>
-      <c r="J190" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L190" s="17">
-        <v>4</v>
-      </c>
+      <c r="B190" s="82"/>
+      <c r="C190" s="83"/>
+      <c r="F190" s="76"/>
+      <c r="G190" s="76"/>
+      <c r="H190" s="76"/>
+      <c r="I190" s="76"/>
     </row>
     <row r="191" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B191" s="92"/>
-      <c r="C191" s="93"/>
-      <c r="D191" s="45"/>
-      <c r="E191" s="46"/>
-      <c r="F191" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="G191" s="49"/>
-      <c r="H191" s="49"/>
-      <c r="I191" s="67"/>
+      <c r="B191" s="82"/>
+      <c r="C191" s="83"/>
+      <c r="D191" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E191" s="49"/>
+      <c r="F191" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="G191" s="54"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="55"/>
       <c r="J191" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K191" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L191" s="17">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="L191" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B192" s="92"/>
-      <c r="C192" s="93"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="G192" s="49"/>
-      <c r="H192" s="49"/>
-      <c r="I192" s="67"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="83"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G192" s="54"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="55"/>
       <c r="J192" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K192" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L192" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B193" s="82"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G193" s="54"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="55"/>
+      <c r="J193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K193" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L193" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B194" s="82"/>
+      <c r="C194" s="83"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="51"/>
+      <c r="F194" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G194" s="54"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K194" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L194" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B195" s="82"/>
+      <c r="C195" s="83"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="51"/>
+      <c r="F195" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="55"/>
+      <c r="J195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K195" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L195" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B196" s="82"/>
+      <c r="C196" s="83"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="51"/>
+      <c r="F196" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="G196" s="54"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="55"/>
+      <c r="J196" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K196" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L196" s="5">
         <v>5</v>
       </c>
-      <c r="L192" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B193" s="92"/>
-      <c r="C193" s="93"/>
-      <c r="D193" s="45"/>
-      <c r="E193" s="46"/>
-      <c r="F193" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="G193" s="49"/>
-      <c r="H193" s="49"/>
-      <c r="I193" s="67"/>
-      <c r="J193" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L193" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B194" s="92"/>
-      <c r="C194" s="93"/>
-      <c r="D194" s="47"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G194" s="49"/>
-      <c r="H194" s="49"/>
-      <c r="I194" s="67"/>
-      <c r="J194" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L194" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B195" s="92"/>
-      <c r="C195" s="93"/>
-    </row>
-    <row r="196" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B196" s="92"/>
-      <c r="C196" s="93"/>
-      <c r="D196" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E196" s="44"/>
-      <c r="F196" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G196" s="49"/>
-      <c r="H196" s="49"/>
-      <c r="I196" s="67"/>
-      <c r="J196" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L196" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B197" s="92"/>
-      <c r="C197" s="93"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="46"/>
-      <c r="F197" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49"/>
-      <c r="I197" s="67"/>
+    </row>
+    <row r="197" spans="2:12" s="35" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B197" s="82"/>
+      <c r="C197" s="83"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="51"/>
+      <c r="F197" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G197" s="74"/>
+      <c r="H197" s="74"/>
+      <c r="I197" s="75"/>
       <c r="J197" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K197" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L197" s="17">
-        <v>6</v>
+      <c r="K197" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="L197" s="38">
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B198" s="92"/>
-      <c r="C198" s="93"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G198" s="49"/>
-      <c r="H198" s="49"/>
-      <c r="I198" s="67"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="55"/>
       <c r="J198" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K198" s="21" t="s">
+      <c r="K198" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L198" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B199" s="82"/>
+      <c r="C199" s="83"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
+      <c r="K199" s="33"/>
+      <c r="L199" s="33"/>
+    </row>
+    <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B200" s="82"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" s="49"/>
+      <c r="F200" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G200" s="78"/>
+      <c r="H200" s="78"/>
+      <c r="I200" s="79"/>
+      <c r="J200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L198" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B199" s="92"/>
-      <c r="C199" s="93"/>
-      <c r="D199" s="47"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="G199" s="49"/>
-      <c r="H199" s="49"/>
-      <c r="I199" s="67"/>
-      <c r="J199" s="5" t="s">
+      <c r="L200" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B201" s="82"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="76"/>
+      <c r="E201" s="51"/>
+      <c r="F201" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G201" s="78"/>
+      <c r="H201" s="78"/>
+      <c r="I201" s="79"/>
+      <c r="J201" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K199" s="21" t="s">
+      <c r="K201" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L199" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B200" s="92"/>
-      <c r="C200" s="93"/>
-    </row>
-    <row r="201" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B201" s="92"/>
-      <c r="C201" s="93"/>
-      <c r="D201" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="E201" s="44"/>
-      <c r="F201" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="55"/>
-      <c r="J201" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K201" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L201" s="34">
+      <c r="L201" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B202" s="82"/>
+      <c r="C202" s="83"/>
+      <c r="D202" s="76"/>
+      <c r="E202" s="51"/>
+      <c r="F202" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="G202" s="78"/>
+      <c r="H202" s="78"/>
+      <c r="I202" s="79"/>
+      <c r="J202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B202" s="92"/>
-      <c r="C202" s="93"/>
-      <c r="D202" s="45"/>
-      <c r="E202" s="46"/>
-      <c r="F202" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="55"/>
-      <c r="J202" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K202" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L202" s="34">
-        <v>8</v>
+      <c r="L202" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B203" s="92"/>
-      <c r="C203" s="93"/>
-      <c r="D203" s="45"/>
-      <c r="E203" s="46"/>
-      <c r="F203" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="55"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="76"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="G203" s="78"/>
+      <c r="H203" s="78"/>
+      <c r="I203" s="79"/>
       <c r="J203" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K203" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L203" s="34">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="L203" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B204" s="92"/>
-      <c r="C204" s="93"/>
-      <c r="D204" s="47"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="55"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="83"/>
+      <c r="D204" s="76"/>
+      <c r="E204" s="51"/>
+      <c r="F204" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G204" s="78"/>
+      <c r="H204" s="78"/>
+      <c r="I204" s="79"/>
       <c r="J204" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K204" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L204" s="34">
         <v>5</v>
       </c>
+      <c r="L204" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="205" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B205" s="92"/>
-      <c r="C205" s="93"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="83"/>
+      <c r="D205" s="76"/>
+      <c r="E205" s="51"/>
+      <c r="F205" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G205" s="78"/>
+      <c r="H205" s="78"/>
+      <c r="I205" s="79"/>
+      <c r="J205" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L205" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="206" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B206" s="92"/>
-      <c r="C206" s="93"/>
-      <c r="D206" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E206" s="44"/>
-      <c r="F206" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="G206" s="49"/>
-      <c r="H206" s="49"/>
-      <c r="I206" s="67"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="83"/>
+      <c r="D206" s="76"/>
+      <c r="E206" s="51"/>
+      <c r="F206" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G206" s="78"/>
+      <c r="H206" s="78"/>
+      <c r="I206" s="79"/>
       <c r="J206" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K206" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L206" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B207" s="92"/>
-      <c r="C207" s="93"/>
-      <c r="D207" s="45"/>
-      <c r="E207" s="46"/>
-      <c r="F207" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="G207" s="49"/>
-      <c r="H207" s="49"/>
-      <c r="I207" s="67"/>
+      <c r="B207" s="82"/>
+      <c r="C207" s="83"/>
+      <c r="D207" s="66"/>
+      <c r="E207" s="53"/>
+      <c r="F207" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="G207" s="78"/>
+      <c r="H207" s="78"/>
+      <c r="I207" s="79"/>
       <c r="J207" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K207" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L207" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B208" s="92"/>
-      <c r="C208" s="93"/>
-      <c r="D208" s="45"/>
-      <c r="E208" s="46"/>
-      <c r="F208" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G208" s="49"/>
-      <c r="H208" s="49"/>
-      <c r="I208" s="67"/>
-      <c r="J208" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K208" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L208" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B209" s="92"/>
-      <c r="C209" s="93"/>
-      <c r="D209" s="45"/>
-      <c r="E209" s="46"/>
-      <c r="F209" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="G209" s="49"/>
-      <c r="H209" s="49"/>
-      <c r="I209" s="67"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="83"/>
+    </row>
+    <row r="209" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B209" s="82"/>
+      <c r="C209" s="83"/>
+      <c r="D209" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E209" s="49"/>
+      <c r="F209" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="G209" s="78"/>
+      <c r="H209" s="78"/>
+      <c r="I209" s="79"/>
       <c r="J209" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K209" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L209" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B210" s="92"/>
-      <c r="C210" s="93"/>
-      <c r="D210" s="45"/>
-      <c r="E210" s="46"/>
-      <c r="F210" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="G210" s="49"/>
-      <c r="H210" s="49"/>
-      <c r="I210" s="67"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B210" s="82"/>
+      <c r="C210" s="83"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="51"/>
+      <c r="F210" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="G210" s="78"/>
+      <c r="H210" s="78"/>
+      <c r="I210" s="79"/>
       <c r="J210" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K210" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L210" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B211" s="92"/>
-      <c r="C211" s="93"/>
-      <c r="D211" s="45"/>
-      <c r="E211" s="46"/>
-      <c r="F211" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="G211" s="49"/>
-      <c r="H211" s="49"/>
-      <c r="I211" s="67"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B211" s="82"/>
+      <c r="C211" s="83"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="G211" s="78"/>
+      <c r="H211" s="78"/>
+      <c r="I211" s="79"/>
       <c r="J211" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K211" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L211" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B212" s="92"/>
-      <c r="C212" s="93"/>
-      <c r="D212" s="45"/>
-      <c r="E212" s="46"/>
-      <c r="F212" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="G212" s="49"/>
-      <c r="H212" s="49"/>
-      <c r="I212" s="67"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B212" s="82"/>
+      <c r="C212" s="83"/>
+      <c r="D212" s="66"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G212" s="78"/>
+      <c r="H212" s="78"/>
+      <c r="I212" s="79"/>
       <c r="J212" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K212" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L212" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B213" s="92"/>
-      <c r="C213" s="93"/>
-      <c r="D213" s="47"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="G213" s="49"/>
-      <c r="H213" s="49"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K213" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B213" s="82"/>
+      <c r="C213" s="83"/>
+    </row>
+    <row r="214" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B214" s="82"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E214" s="49"/>
+      <c r="F214" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="55"/>
+      <c r="J214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K214" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" s="34">
         <v>5</v>
       </c>
-      <c r="L213" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B214" s="92"/>
-      <c r="C214" s="93"/>
-      <c r="F214" s="45"/>
-      <c r="G214" s="45"/>
-      <c r="H214" s="45"/>
-      <c r="I214" s="45"/>
-    </row>
-    <row r="215" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B215" s="92"/>
-      <c r="C215" s="93"/>
-      <c r="D215" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E215" s="44"/>
-      <c r="F215" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G215" s="49"/>
-      <c r="H215" s="49"/>
-      <c r="I215" s="49"/>
+    </row>
+    <row r="215" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B215" s="82"/>
+      <c r="C215" s="83"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="51"/>
+      <c r="F215" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="G215" s="54"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="55"/>
       <c r="J215" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K215" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L215" s="11">
+        <v>22</v>
+      </c>
+      <c r="L215" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B216" s="82"/>
+      <c r="C216" s="83"/>
+      <c r="D216" s="76"/>
+      <c r="E216" s="51"/>
+      <c r="F216" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G216" s="54"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="55"/>
+      <c r="J216" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K216" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B216" s="92"/>
-      <c r="C216" s="93"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="46"/>
-      <c r="F216" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G216" s="49"/>
-      <c r="H216" s="49"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L216" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B217" s="92"/>
-      <c r="C217" s="93"/>
-      <c r="D217" s="47"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G217" s="49"/>
-      <c r="H217" s="49"/>
-      <c r="I217" s="49"/>
+    <row r="217" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B217" s="82"/>
+      <c r="C217" s="83"/>
+      <c r="D217" s="66"/>
+      <c r="E217" s="53"/>
+      <c r="F217" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G217" s="54"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="55"/>
       <c r="J217" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K217" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="34">
         <v>5</v>
       </c>
-      <c r="L217" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B218" s="92"/>
-      <c r="C218" s="93"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="22"/>
-      <c r="L218" s="16"/>
-    </row>
-    <row r="219" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B219" s="92"/>
-      <c r="C219" s="93"/>
-      <c r="D219" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E219" s="44"/>
-      <c r="F219" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="G219" s="49"/>
-      <c r="H219" s="49"/>
-      <c r="I219" s="67"/>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="5" t="s">
+    </row>
+    <row r="218" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B218" s="82"/>
+      <c r="C218" s="83"/>
+    </row>
+    <row r="219" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B219" s="82"/>
+      <c r="C219" s="83"/>
+      <c r="D219" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="E219" s="49"/>
+      <c r="F219" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="G219" s="78"/>
+      <c r="H219" s="78"/>
+      <c r="I219" s="79"/>
+      <c r="J219" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K219" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L219" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B220" s="94"/>
-      <c r="C220" s="95"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="67"/>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="5" t="s">
+    <row r="220" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B220" s="82"/>
+      <c r="C220" s="83"/>
+      <c r="D220" s="76"/>
+      <c r="E220" s="51"/>
+      <c r="F220" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G220" s="78"/>
+      <c r="H220" s="78"/>
+      <c r="I220" s="79"/>
+      <c r="J220" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K220" s="21" t="s">
         <v>5</v>
       </c>
       <c r="L220" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B221" s="82"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="76"/>
+      <c r="E221" s="51"/>
+      <c r="F221" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="G221" s="78"/>
+      <c r="H221" s="78"/>
+      <c r="I221" s="79"/>
+      <c r="J221" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K221" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B221" s="23"/>
-      <c r="C221" s="23"/>
-      <c r="D221" s="3"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="22"/>
-      <c r="L221" s="2"/>
-    </row>
-    <row r="222" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B222" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="C222" s="85"/>
-      <c r="D222" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="E222" s="44"/>
-      <c r="F222" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="G222" s="105"/>
-      <c r="H222" s="105"/>
-      <c r="I222" s="106"/>
+      <c r="L221" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B222" s="82"/>
+      <c r="C222" s="83"/>
+      <c r="D222" s="76"/>
+      <c r="E222" s="51"/>
+      <c r="F222" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="G222" s="78"/>
+      <c r="H222" s="78"/>
+      <c r="I222" s="79"/>
       <c r="J222" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K222" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L222" s="56" t="s">
+      <c r="L222" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B223" s="82"/>
+      <c r="C223" s="83"/>
+      <c r="D223" s="76"/>
+      <c r="E223" s="51"/>
+      <c r="F223" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="G223" s="78"/>
+      <c r="H223" s="78"/>
+      <c r="I223" s="79"/>
+      <c r="J223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K223" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L223" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B224" s="82"/>
+      <c r="C224" s="83"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="51"/>
+      <c r="F224" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G224" s="78"/>
+      <c r="H224" s="78"/>
+      <c r="I224" s="79"/>
+      <c r="J224" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K224" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L224" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B225" s="82"/>
+      <c r="C225" s="83"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="51"/>
+      <c r="F225" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="G225" s="78"/>
+      <c r="H225" s="78"/>
+      <c r="I225" s="79"/>
+      <c r="J225" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K225" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L225" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B226" s="82"/>
+      <c r="C226" s="83"/>
+      <c r="D226" s="66"/>
+      <c r="E226" s="53"/>
+      <c r="F226" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G226" s="78"/>
+      <c r="H226" s="78"/>
+      <c r="I226" s="79"/>
+      <c r="J226" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K226" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L226" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B227" s="82"/>
+      <c r="C227" s="83"/>
+      <c r="F227" s="76"/>
+      <c r="G227" s="76"/>
+      <c r="H227" s="76"/>
+      <c r="I227" s="76"/>
+    </row>
+    <row r="228" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B228" s="82"/>
+      <c r="C228" s="83"/>
+      <c r="D228" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E228" s="49"/>
+      <c r="F228" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G228" s="78"/>
+      <c r="H228" s="78"/>
+      <c r="I228" s="78"/>
+      <c r="J228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L228" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B229" s="82"/>
+      <c r="C229" s="83"/>
+      <c r="D229" s="76"/>
+      <c r="E229" s="51"/>
+      <c r="F229" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="G229" s="78"/>
+      <c r="H229" s="78"/>
+      <c r="I229" s="79"/>
+      <c r="J229" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L229" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B230" s="82"/>
+      <c r="C230" s="83"/>
+      <c r="D230" s="66"/>
+      <c r="E230" s="53"/>
+      <c r="F230" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G230" s="78"/>
+      <c r="H230" s="78"/>
+      <c r="I230" s="78"/>
+      <c r="J230" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L230" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B231" s="82"/>
+      <c r="C231" s="83"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="22"/>
+      <c r="L231" s="16"/>
+    </row>
+    <row r="232" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B232" s="82"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E232" s="49"/>
+      <c r="F232" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="G232" s="78"/>
+      <c r="H232" s="78"/>
+      <c r="I232" s="79"/>
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L232" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B233" s="84"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G233" s="78"/>
+      <c r="H233" s="78"/>
+      <c r="I233" s="79"/>
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L233" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="3"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="22"/>
+      <c r="L234" s="2"/>
+    </row>
+    <row r="235" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B235" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C235" s="96"/>
+      <c r="D235" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E235" s="49"/>
+      <c r="F235" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G235" s="87"/>
+      <c r="H235" s="87"/>
+      <c r="I235" s="88"/>
+      <c r="J235" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L235" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="M222" s="57"/>
-    </row>
-    <row r="223" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B223" s="113"/>
-      <c r="C223" s="114"/>
-      <c r="D223" s="61"/>
-      <c r="E223" s="46"/>
-      <c r="F223" s="107"/>
-      <c r="G223" s="108"/>
-      <c r="H223" s="108"/>
-      <c r="I223" s="109"/>
-      <c r="J223" s="5" t="s">
+      <c r="M235" s="57"/>
+    </row>
+    <row r="236" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B236" s="97"/>
+      <c r="C236" s="98"/>
+      <c r="D236" s="50"/>
+      <c r="E236" s="51"/>
+      <c r="F236" s="89"/>
+      <c r="G236" s="90"/>
+      <c r="H236" s="90"/>
+      <c r="I236" s="91"/>
+      <c r="J236" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K223" s="21" t="s">
+      <c r="K236" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="L223" s="56" t="s">
+      <c r="L236" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="M223" s="57"/>
-    </row>
-    <row r="224" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B224" s="86"/>
-      <c r="C224" s="87"/>
-      <c r="D224" s="62"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="110"/>
-      <c r="G224" s="111"/>
-      <c r="H224" s="111"/>
-      <c r="I224" s="112"/>
-      <c r="J224" s="5" t="s">
+      <c r="M236" s="57"/>
+    </row>
+    <row r="237" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B237" s="99"/>
+      <c r="C237" s="100"/>
+      <c r="D237" s="52"/>
+      <c r="E237" s="53"/>
+      <c r="F237" s="92"/>
+      <c r="G237" s="93"/>
+      <c r="H237" s="93"/>
+      <c r="I237" s="94"/>
+      <c r="J237" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K224" s="21" t="s">
+      <c r="K237" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="L224" s="56" t="s">
+      <c r="L237" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="M224" s="57"/>
-    </row>
-    <row r="225" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="I225" s="7"/>
-    </row>
-    <row r="226" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D226" s="45"/>
-      <c r="E226" s="45"/>
-      <c r="F226" s="45"/>
-      <c r="G226" s="45"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
+      <c r="M237" s="57"/>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="I238" s="7"/>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="D239" s="76"/>
+      <c r="E239" s="76"/>
+      <c r="F239" s="76"/>
+      <c r="G239" s="76"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D167:E169"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D94:E99"/>
-    <mergeCell ref="D84:E87"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="D137:E138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="D162:E163"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="L222:M222"/>
-    <mergeCell ref="L223:M223"/>
-    <mergeCell ref="L224:M224"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="F219:I219"/>
-    <mergeCell ref="F220:I220"/>
-    <mergeCell ref="D219:E220"/>
-    <mergeCell ref="B137:C220"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="F214:I214"/>
-    <mergeCell ref="F192:I192"/>
-    <mergeCell ref="F194:I194"/>
+  <mergeCells count="241">
+    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="D158:E159"/>
+    <mergeCell ref="F159:I159"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="F161:I161"/>
+    <mergeCell ref="F162:I162"/>
+    <mergeCell ref="D161:E162"/>
+    <mergeCell ref="D60:E63"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F98:I98"/>
     <mergeCell ref="F196:I196"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="F198:I198"/>
-    <mergeCell ref="F191:I191"/>
-    <mergeCell ref="F209:I209"/>
-    <mergeCell ref="F210:I210"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="D149:E150"/>
-    <mergeCell ref="F171:I171"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D222:E224"/>
-    <mergeCell ref="F222:I224"/>
-    <mergeCell ref="B222:C224"/>
-    <mergeCell ref="D152:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="F203:I203"/>
-    <mergeCell ref="F208:I208"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="F215:I215"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="D215:E217"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="D157:E158"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:I160"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="F202:I202"/>
-    <mergeCell ref="D206:E213"/>
-    <mergeCell ref="F206:I206"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F168:I168"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F94:I94"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F137:I137"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="B105:C134"/>
-    <mergeCell ref="D127:E128"/>
-    <mergeCell ref="D65:E71"/>
-    <mergeCell ref="D130:E132"/>
-    <mergeCell ref="D124:E125"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="D171:E174"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="F167:I167"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F199:I199"/>
-    <mergeCell ref="D187:E194"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="F204:I204"/>
-    <mergeCell ref="D196:E199"/>
-    <mergeCell ref="D201:E204"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F190:I190"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="F147:I147"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="D178:E185"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="F181:I181"/>
-    <mergeCell ref="D140:E142"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="F169:I169"/>
-    <mergeCell ref="F212:I212"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F173:I173"/>
-    <mergeCell ref="D120:E122"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F121:I121"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="D108:E110"/>
-    <mergeCell ref="D105:E106"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="D116:E118"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="D112:E114"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="D73:E82"/>
+    <mergeCell ref="D89:E90"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D22:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="D49:E52"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="D17:I17"/>
@@ -7374,59 +7661,180 @@
     <mergeCell ref="F62:I62"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D22:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="D49:E52"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="D60:E63"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="D73:E82"/>
-    <mergeCell ref="D89:E90"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F225:I225"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F186:I186"/>
+    <mergeCell ref="D120:E122"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F121:I121"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="D108:E110"/>
+    <mergeCell ref="D105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="D116:E118"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="D112:E114"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="D200:E207"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="D209:E212"/>
+    <mergeCell ref="D214:E217"/>
+    <mergeCell ref="D150:E151"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F203:I203"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="F148:I148"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="D191:E198"/>
+    <mergeCell ref="F198:I198"/>
+    <mergeCell ref="F192:I192"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="F194:I194"/>
+    <mergeCell ref="D144:E146"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="D65:E71"/>
+    <mergeCell ref="D130:E132"/>
+    <mergeCell ref="D124:E125"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="D184:E187"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="B105:C134"/>
+    <mergeCell ref="D127:E128"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="D137:E142"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F137:I137"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="F235:I237"/>
+    <mergeCell ref="B235:C237"/>
+    <mergeCell ref="D164:E167"/>
+    <mergeCell ref="F167:I167"/>
+    <mergeCell ref="F164:I164"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="F221:I221"/>
+    <mergeCell ref="F220:I220"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="D228:E230"/>
+    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="D169:E170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F215:I215"/>
+    <mergeCell ref="D219:E226"/>
+    <mergeCell ref="F219:I219"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="L235:M235"/>
+    <mergeCell ref="L236:M236"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="F232:I232"/>
+    <mergeCell ref="F233:I233"/>
+    <mergeCell ref="D232:E233"/>
+    <mergeCell ref="B137:C233"/>
+    <mergeCell ref="F206:I206"/>
+    <mergeCell ref="F227:I227"/>
+    <mergeCell ref="F205:I205"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="F211:I211"/>
+    <mergeCell ref="F204:I204"/>
+    <mergeCell ref="F222:I222"/>
+    <mergeCell ref="F223:I223"/>
+    <mergeCell ref="F224:I224"/>
+    <mergeCell ref="F226:I226"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="F184:I184"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D235:E237"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D179:E182"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D94:E99"/>
+    <mergeCell ref="D84:E87"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="D174:E175"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F127:I127"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K151 K133 K156 K159 K161 K164 K166" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K155:K163 K133 K168 K171 K173 K176 K178" xr:uid="{2DC3D7B0-8CF4-4757-B488-D2E4D8070039}">
       <formula1>$R$3:$R$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J22:J29 J31:J39 J222:J224 J54:J55 J57:J58 J60:J63 J65:J71 J73:J75 J206:J213 J105:J106 J108:J110 J112:J114 J116:J118 J124:J125 J127:J128 J130:J134 J120:J122 J187:J194 J196:J199 J201:J204 J171:J174 H226 J215:J220 J101:J103 J77:J82 J41 J46:J47 J146:J147 J89:J90 J92 J43:J44 J94:J99 J49:J52 J137:J144 J178:J185 J84:J87 J176 J149:J169" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J19 J22:J29 J31:J39 J235:J237 J54:J55 J57:J58 J60:J63 J65:J71 J73:J75 J219:J226 J105:J106 J108:J110 J112:J114 J116:J118 J124:J125 J127:J128 J130:J134 J120:J122 J200:J207 J209:J212 J214:J217 J184:J187 H239 J228:J233 J101:J103 J77:J82 J41 J46:J47 J150:J151 J89:J90 J92 J43:J44 J94:J99 J49:J52 J137:J148 J191:J198 J84:J87 J189 J153:J182" xr:uid="{10AFDF30-B450-4558-A03B-751D8CE345A4}">
       <formula1>$G$5:$G$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K124:K125 K22:K29 K31:K39 K222:K224 K54:K55 K201:K204 K60:K63 K73:K75 K77:K82 K196:K199 K105:K106 K108:K110 K112:K114 K116:K118 K120:K122 K65:K71 K127:K128 K130:K132 K57:K58 K101:K103 K187:K194 K98:K99 I226 K152:K155 K206:K213 K215:K220 K41 K46:K47 K146:K147 K149:K150 K89:K90 K92 K43:K44 K157:K158 K49:K52 K160 K171:K174 K137:K144 K178:K181 K84:K87 K183 K176 K167:K169 K162:K163 K165" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K20 K124:K125 K22:K29 K31:K39 K235:K237 K54:K55 K214:K217 K60:K63 K73:K75 K77:K82 K209:K212 K105:K106 K108:K110 K112:K114 K116:K118 K120:K122 K65:K71 K127:K128 K130:K132 K57:K58 K101:K103 K200:K207 K98:K99 I239 K164:K167 K219:K226 K228:K233 K41 K46:K47 K150:K151 K153:K154 K89:K90 K92 K43:K44 K169:K170 K49:K52 K172 K184:K187 K137:K148 K191:K194 K84:K87 K196 K189 K179:K182 K174:K175 K177" xr:uid="{F4AEF98E-6084-491E-8EC0-63DF3FF33553}">
       <formula1>$D$5:$D$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -7645,18 +8053,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7679,14 +8087,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145F01E7-EF9C-4603-AA2B-FF4DC3E55AD9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7cd07669-f7e4-4811-9af0-01eecff77126"/>
@@ -7701,4 +8101,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9F0F90-81EC-49DA-BE6F-DA19BD7E7C52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>